--- a/google_drive_cache/1nH4LH15wO3nx31vO9CtqP3HkJItg98LdxMHsy321TQw.xlsx
+++ b/google_drive_cache/1nH4LH15wO3nx31vO9CtqP3HkJItg98LdxMHsy321TQw.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="119">
   <si>
     <t>name</t>
   </si>
@@ -48,7 +48,76 @@
     <t>rank</t>
   </si>
   <si>
-    <t>awardType</t>
+    <t>bestPicture</t>
+  </si>
+  <si>
+    <t>actor</t>
+  </si>
+  <si>
+    <t>actress</t>
+  </si>
+  <si>
+    <t>supportingActor</t>
+  </si>
+  <si>
+    <t>supportingactress</t>
+  </si>
+  <si>
+    <t>directing</t>
+  </si>
+  <si>
+    <t>screenplayOriginal</t>
+  </si>
+  <si>
+    <t>screenplayAdapted</t>
+  </si>
+  <si>
+    <t>documentaryFeature</t>
+  </si>
+  <si>
+    <t>documentaryShort</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>shortFilmAnimated</t>
+  </si>
+  <si>
+    <t>shortFilmLive</t>
+  </si>
+  <si>
+    <t>animated</t>
+  </si>
+  <si>
+    <t>costume</t>
+  </si>
+  <si>
+    <t>makeup</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>filmEditing</t>
+  </si>
+  <si>
+    <t>song</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>soundMixing</t>
+  </si>
+  <si>
+    <t>visual</t>
+  </si>
+  <si>
+    <t>cinematography</t>
+  </si>
+  <si>
+    <t>soundEditing</t>
   </si>
   <si>
     <t>about</t>
@@ -57,10 +126,19 @@
     <t>video</t>
   </si>
   <si>
+    <t>availability</t>
+  </si>
+  <si>
     <t>The Big Short</t>
   </si>
   <si>
-    <t>Best Picture</t>
+    <t>.bestPicture</t>
+  </si>
+  <si>
+    <t>Writing (Adapted Screenplay)</t>
+  </si>
+  <si>
+    <t>Film Editing</t>
   </si>
   <si>
     <t>Four outsiders to Wall Street use what are sometimes perceived as eccentric insights into the U.S. financial markets to predict the meltdowns of the housing market and big banks in 2008. Betting together on the coming catastrophe, the quartet manages to invest shrewdly and amass a fortune, all while exposing the corruption of several large financial institutions.</t>
@@ -72,12 +150,39 @@
     <t>Bridge of Spies</t>
   </si>
   <si>
+    <t>Writing (Original Screenplay)</t>
+  </si>
+  <si>
+    <t>Production Design</t>
+  </si>
+  <si>
+    <t>Original Score</t>
+  </si>
+  <si>
+    <t>Sound Mixing</t>
+  </si>
+  <si>
     <t>Brooklyn</t>
   </si>
   <si>
     <t>Mad Max</t>
   </si>
   <si>
+    <t>Costume Design</t>
+  </si>
+  <si>
+    <t>Makeup and Hairstyling</t>
+  </si>
+  <si>
+    <t>Visual Effects</t>
+  </si>
+  <si>
+    <t>Cinematography</t>
+  </si>
+  <si>
+    <t>Sound Editing</t>
+  </si>
+  <si>
     <t>The Martian</t>
   </si>
   <si>
@@ -106,6 +211,156 @@
   </si>
   <si>
     <t>When Marnie Was There</t>
+  </si>
+  <si>
+    <t>Carol</t>
+  </si>
+  <si>
+    <t>Cinderella</t>
+  </si>
+  <si>
+    <t>The Danish Girl</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>Documentary (Feature)</t>
+  </si>
+  <si>
+    <t>Cartel Land</t>
+  </si>
+  <si>
+    <t>The Look of Silence</t>
+  </si>
+  <si>
+    <t>What Happened, Miss Simone?</t>
+  </si>
+  <si>
+    <t>Winter on Fire: Ukraine's Fight for Freedom</t>
+  </si>
+  <si>
+    <t>Body Team 12</t>
+  </si>
+  <si>
+    <t>Documentary (Short Subject)</t>
+  </si>
+  <si>
+    <t>Chau, beyond the Lines</t>
+  </si>
+  <si>
+    <t>Claude Lanzmann: Spectres of the Shoah</t>
+  </si>
+  <si>
+    <t>A Girl in the River: The Price of Forgiveness</t>
+  </si>
+  <si>
+    <t>Last Day of Freedom</t>
+  </si>
+  <si>
+    <t>Star Wars: The Force Awakens</t>
+  </si>
+  <si>
+    <t>Embrace of the Serpent</t>
+  </si>
+  <si>
+    <t>Foreign Language Film</t>
+  </si>
+  <si>
+    <t>Mustang</t>
+  </si>
+  <si>
+    <t>Son of Saul</t>
+  </si>
+  <si>
+    <t>Theeb</t>
+  </si>
+  <si>
+    <t>A War</t>
+  </si>
+  <si>
+    <t>The 100-Year-Old Man Who Climbed Out the Window and Disappeared</t>
+  </si>
+  <si>
+    <t>Bear Story</t>
+  </si>
+  <si>
+    <t>Short Film (Animated)</t>
+  </si>
+  <si>
+    <t>Prologue</t>
+  </si>
+  <si>
+    <t>We Can't Live Without Cosmos</t>
+  </si>
+  <si>
+    <t>World of Tomorrow</t>
+  </si>
+  <si>
+    <t>Sanjay's Super Team</t>
+  </si>
+  <si>
+    <t>Ave Maria</t>
+  </si>
+  <si>
+    <t>Short Film (Live Action)</t>
+  </si>
+  <si>
+    <t>Day One</t>
+  </si>
+  <si>
+    <t>Shok</t>
+  </si>
+  <si>
+    <t>Stutterer</t>
+  </si>
+  <si>
+    <t>Everything Will Be Okay</t>
+  </si>
+  <si>
+    <t>Ex Machina</t>
+  </si>
+  <si>
+    <t>Straight Outta Compton</t>
+  </si>
+  <si>
+    <t>Trumbo</t>
+  </si>
+  <si>
+    <t>Steve Jobs</t>
+  </si>
+  <si>
+    <t>45 Years</t>
+  </si>
+  <si>
+    <t>Joy</t>
+  </si>
+  <si>
+    <t>Creed</t>
+  </si>
+  <si>
+    <t>The Hateful Eight</t>
+  </si>
+  <si>
+    <t>Sicario</t>
+  </si>
+  <si>
+    <t>Fifty Shades of Grey</t>
+  </si>
+  <si>
+    <t>Original Song</t>
+  </si>
+  <si>
+    <t>Youth</t>
+  </si>
+  <si>
+    <t>Racing Extinction</t>
+  </si>
+  <si>
+    <t>The Hunting Ground</t>
+  </si>
+  <si>
+    <t>Spectre</t>
   </si>
   <si>
     <t>names</t>
@@ -282,7 +537,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
@@ -299,233 +559,1206 @@
       <c r="D1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="F1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="2">
+        <v>57.0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
+      <c r="J2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>56.0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="S3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>55.0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
+        <v>54.0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>53.0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="S6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U6" s="2"/>
+      <c r="W6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="B7" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>52.0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B8" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2" t="s">
+        <v>51.0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>17</v>
+      <c r="J8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B9" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="C9" s="2" t="s">
+        <v>50.0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="H9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
+      <c r="I9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="B10" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
+        <v>49.0</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="B11" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>48.0</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B12" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>17</v>
+        <v>47.0</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="B13" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>17</v>
+        <v>46.0</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="B14" s="2">
+        <v>45.0</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44.0</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="2">
+        <v>43.0</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="2">
+        <v>42.0</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="2">
+        <v>41.0</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="2">
+        <v>39.0</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="2">
+        <v>38.0</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="2">
+        <v>37.0</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="2">
+        <v>36.0</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="T28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z28" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="O44" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="U44" s="2"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="X45" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="U48" s="2"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y52" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="J53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="V53" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z53" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="U54" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="U55" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="U56" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="U57" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="2">
         <v>1.0</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="C15" s="2"/>
+      <c r="U58" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -550,31 +1783,31 @@
         <v>2</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/google_drive_cache/1nH4LH15wO3nx31vO9CtqP3HkJItg98LdxMHsy321TQw.xlsx
+++ b/google_drive_cache/1nH4LH15wO3nx31vO9CtqP3HkJItg98LdxMHsy321TQw.xlsx
@@ -422,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -439,6 +439,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -637,7 +640,7 @@
       <c r="AD1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="2">
@@ -674,7 +677,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="2">
@@ -724,7 +727,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="2">
@@ -765,7 +768,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="2">
@@ -821,7 +824,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B6" s="2">
@@ -870,7 +873,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B7" s="2">
@@ -929,7 +932,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B8" s="2">
@@ -964,7 +967,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B9" s="2">
@@ -1001,7 +1004,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B10" s="2">
@@ -1035,7 +1038,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B11" s="2">
@@ -1069,7 +1072,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B12" s="2">
@@ -1103,7 +1106,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B13" s="2">
@@ -1137,7 +1140,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B14" s="2">
@@ -1171,7 +1174,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B15" s="2">
@@ -1205,7 +1208,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B16" s="2">
@@ -1216,7 +1219,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B17" s="2">
@@ -1245,7 +1248,7 @@
       <c r="U17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B18" s="2">
@@ -1268,7 +1271,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B20" s="2">
@@ -1312,7 +1315,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B24" s="2">
@@ -1334,7 +1337,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B26" s="2">
@@ -1345,7 +1348,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B27" s="2">
@@ -1356,7 +1359,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B28" s="2">
@@ -1381,7 +1384,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="6" t="s">
         <v>82</v>
       </c>
       <c r="B29" s="2">
@@ -1403,7 +1406,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B31" s="2">
@@ -1414,7 +1417,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="6" t="s">
         <v>86</v>
       </c>
       <c r="B32" s="2">
@@ -1425,7 +1428,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B33" s="2">
@@ -1436,7 +1439,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B34" s="2">
@@ -1447,7 +1450,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="6" t="s">
         <v>89</v>
       </c>
       <c r="B35" s="2">
@@ -1469,7 +1472,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B37" s="2">
@@ -1480,7 +1483,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="6" t="s">
         <v>93</v>
       </c>
       <c r="B38" s="2">
@@ -1491,7 +1494,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="6" t="s">
         <v>94</v>
       </c>
       <c r="B39" s="2">
@@ -1502,7 +1505,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B40" s="2">
@@ -1524,7 +1527,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="6" t="s">
         <v>98</v>
       </c>
       <c r="B42" s="2">
@@ -1535,7 +1538,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B43" s="2">
@@ -1546,7 +1549,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="6" t="s">
         <v>100</v>
       </c>
       <c r="B44" s="2">
@@ -1562,7 +1565,7 @@
       <c r="U44" s="2"/>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B45" s="2">
@@ -1577,7 +1580,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="6" t="s">
         <v>102</v>
       </c>
       <c r="B46" s="2">
@@ -1588,7 +1591,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B47" s="2">
@@ -1599,7 +1602,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B48" s="2">
@@ -1626,7 +1629,7 @@
       <c r="U48" s="2"/>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B49" s="2">
@@ -1637,7 +1640,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B50" s="2">
@@ -1648,7 +1651,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B51" s="2">
@@ -1659,7 +1662,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="6" t="s">
         <v>108</v>
       </c>
       <c r="B52" s="2">
@@ -1687,7 +1690,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="6" t="s">
         <v>109</v>
       </c>
       <c r="B53" s="2">
@@ -1706,7 +1709,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="6" t="s">
         <v>110</v>
       </c>
       <c r="B54" s="2">
@@ -1717,7 +1720,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B55" s="2">
@@ -1728,7 +1731,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B56" s="2">
@@ -1739,7 +1742,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B57" s="2">
@@ -1750,7 +1753,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B58" s="2">
@@ -1779,10 +1782,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>116</v>
       </c>
     </row>

--- a/google_drive_cache/1nH4LH15wO3nx31vO9CtqP3HkJItg98LdxMHsy321TQw.xlsx
+++ b/google_drive_cache/1nH4LH15wO3nx31vO9CtqP3HkJItg98LdxMHsy321TQw.xlsx
@@ -8,13 +8,15 @@
     <sheet state="visible" name="expanded-data" sheetId="3" r:id="rId5"/>
     <sheet state="visible" name="credit" sheetId="4" r:id="rId6"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">data!$A$1:$J$58</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="420">
   <si>
     <t>name</t>
   </si>
@@ -46,370 +48,1204 @@
     <t>film</t>
   </si>
   <si>
+    <t>filmIDMB</t>
+  </si>
+  <si>
     <t>rank</t>
   </si>
   <si>
     <t>awardType</t>
   </si>
   <si>
+    <t>nominated</t>
+  </si>
+  <si>
     <t>about</t>
   </si>
   <si>
+    <t>link</t>
+  </si>
+  <si>
     <t>video</t>
   </si>
   <si>
     <t>availability</t>
   </si>
   <si>
+    <t>availabilityFilter</t>
+  </si>
+  <si>
+    <t>Carol</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt2402927/?ref_=nv_sr_1"&gt;&lt;i&gt;Carol&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>costume screenplayAdapted score cinematography actress supportingActress</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nominated for: &lt;/b&gt;Actress (Cate Blanchett), Supporting Actress (Rooney Mara), Adapted Screenplay, Cinematography, Original Score, Costume Design</t>
+  </si>
+  <si>
+    <t>The best film of 2015 must, alas, join the long list of deserving projects that were overlooked by the Oscars' Best Picture category. (At least it's in good company.) Blanchett and Mara play two women navigating a love affair in 1950s New York, even though neither is quite willing to label it as such. This is a tremendous movie about feeling all alone in the world, then finding somebody else to feel a little bit less alone with, and in its beautiful images and marvelous performances it courses with deeply buried emotions. Oscar didn't recognize &lt;i&gt;Carol &lt;/i&gt;for its top prize; history surely will.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/679wr31SXWk" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Availability:&lt;/b&gt; In some theaters. Coming to digital download in March.</t>
+  </si>
+  <si>
+    <t>InTheaters</t>
+  </si>
+  <si>
+    <t>Mustang</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt3966404/?ref_=nv_sr_1"&gt;&lt;i&gt;Mustang&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nominated for: &lt;/b&gt;Foreign Language Film (France)</t>
+  </si>
+  <si>
+    <t>Five sisters, raised by their uncle and grandmother after their parents passed away, are locked away in near captivity after they become the subject of local gossip for playing in the ocean with boys. The sisters, see, are being raised in a strict religious tradition, and thus not allowed to determine major decisions in their lives. Director Deniz Gamze Ergüven (in just her first film!) impressively finds the comedy, suspense, and pathos in a story that could have been anything but. The last 20 minutes are overwhelming.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/rU9JAN8LtIk" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Availability:&lt;/b&gt; In some theaters. Coming to DVD in May.</t>
+  </si>
+  <si>
+    <t>Mad Max: Fury Road</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt1392190/?ref_=nv_sr_1"&gt;&lt;i&gt;Mad Max: Fury Road&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>bestPicture costume directing filmEditing makeup production visual cinematography soundMixing soundEditing</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nominated for: &lt;/b&gt;Picture, Director (George Miller), Cinematography, Film Editing, Production Design, Costume Design, Makeup and Hairstyling, Sound Mixing, Sound Editing, Visual Effects</t>
+  </si>
+  <si>
+    <t>The boldest, most brilliant action movie in years is the kind of over-the-top spectacular Hollywood almost never makes this well. Thank director Miller, who revived his trilogy from the 1970s and '80s to tell a new story of feminist power in the post-apocalyptic Outback. Following Max (Tom Hardy) as he joins a band of women looking to escape the warlord who's keeping them in sexual slavery, the film is an unrivaled visual feast. The real crime? Where was the nomination for lead actress Charlize Theron?</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.vox.com/2015/5/15/8612481/mad-max-review-fury-road"&gt;Read our review&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/hEJnMQG9ev8" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Availability:&lt;/b&gt; Digital download or rental. Streaming for HBO subscribers.</t>
+  </si>
+  <si>
+    <t>DigitalDownload Streaming</t>
+  </si>
+  <si>
+    <t>Brooklyn</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt2381111/?ref_=nv_sr_1"&gt;&lt;i&gt;Brooklyn&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>bestPicture screenplayAdapted actress</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nominated for: &lt;/b&gt;Picture, Actress (Saoirse Ronan), Adapted Screenplay</t>
+  </si>
+  <si>
+    <t>A lyrical, gentle film, &lt;i&gt;Brooklyn&lt;/i&gt; is proof that you don't need incredibly high stakes to make an involving movie. Eilis, a young woman without much in the way of job prospects in 1950s Ireland, migrates to the New York City borough in the title, where she battles homesickness while trying to establish in a new life. This isn't just a period piece, or an immigrant tale, or a love story, though it's all three of those things. It's about learning how to be yourself, and choosing which life you want to lead.</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.vox.com/2015/11/13/9724852/brooklyn-movie-review"&gt;Read our review&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/1ekxPFTZm1Y" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Availability:&lt;/b&gt; Digital download or in theaters.</t>
+  </si>
+  <si>
+    <t>DigitalDownload InTheaters</t>
+  </si>
+  <si>
+    <t>45 Years</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt3544082/?ref_=nv_sr_1"&gt;&lt;i&gt;45 Years&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>actress</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nominated for: &lt;/b&gt;Actress (Charlotte Rampling)</t>
+  </si>
+  <si>
+    <t>This modest domestic drama from the United Kingdom grows in emotional power until its final scene, a true acting showcase for Rampling. She plays a woman whose husband of 45 years is thrown for a loop when his long-dead former girlfriend is discovered at the bottom of an icy crevice in the mountains. Slowly but surely, the dead woman comes to dominate every conversation the two have, until their seemingly happy marriage has had all of its cracks exposed. It's brutal.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/qXAnjA9tAnQ" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Availability:&lt;/b&gt; In some theaters.</t>
+  </si>
+  <si>
+    <t>Embrace of the Serpent</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt4285496/?ref_=nv_sr_1"&gt;&lt;i&gt;Embrace of the Serpent&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nominated for: &lt;/b&gt;Foreign Language Film (Colombia)</t>
+  </si>
+  <si>
+    <t>A visionary trip down the Amazon River, this film is unlike any I've ever seen. An Amazonian named Karamakate — the last of his tribe — helps two white explorers plumb the depths of the jungle in search of a flower that's reported to have mystical powers. The explorers come to him decades apart but might as well be the same man, so far as Karamakate is concerned. This is a mind-bending film, but also a hugely involving one, with much to say about the legacy of colonialism.</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.vox.com/2016/2/20/11077454/embrace-of-the-serpent-review"&gt;Read our review&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/4ff7TcnqHUc" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>World of Tomorrow</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt4171032/?ref_=nv_sr_1"&gt;&lt;i&gt;World of Tomorrow&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>shortFilmAnimated</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nominated for: &lt;/b&gt;Short Film (Animated)</t>
+  </si>
+  <si>
+    <t>Take a deep breath, because the premise of this film is a wild one. A young girl is visited by a third-generation clone of herself from the far future, who wants to tell the girl about everything she can expect in the centuries to come — and impart some vital life lessons that are lost on the child but might be of interest to the audience. This is animator Don Hertzfeldt's magnum opus, a wonderful meditation on love and loss.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/XdV1uFwtCpo" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Availability:&lt;/b&gt; Digital download as part of the Oscar-nominated shorts package or &lt;a href="https://vimeo.com/ondemand/worldoftomorrow/155036442"&gt;on its own&lt;/a&gt;. Also streaming on &lt;a href="http://www.netflix.com/title/80093162"&gt;Netflix&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>Streaming DigitalDownload</t>
+  </si>
+  <si>
+    <t>Inside Out</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt2096673/?ref_=nv_sr_1"&gt;&lt;i&gt;Inside Out&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>animated screenplayOriginal</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nominated for: &lt;/b&gt;Original Screenplay, Animated Feature</t>
+  </si>
+  <si>
+    <t>Pixar's best film in years, &lt;i&gt;Inside Out&lt;/i&gt; tracks the story of a young girl's emotions after her family moves from Minnesota to San Francisco, throwing her whole life into upheaval. While she's thinking about running away, the emotions Joy and Sadness are on a wild journey to set things right inside her brain before she makes a mistake she can't take back. As with all Pixar films, it's beautifully animated. But it's also deeply wise about growing up, our need for a spectrum of emotion, and the end of childhood.</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.vox.com/2015/6/19/8810213/inside-out-movie-review"&gt;Read our review&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/seMwpP0yeu4" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Availability:&lt;/b&gt; Digital download or rental.</t>
+  </si>
+  <si>
+    <t>DigitalDownload</t>
+  </si>
+  <si>
+    <t>Spotlight</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt1895587/?ref_=nv_sr_1"&gt;&lt;i&gt;Spotlight&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>bestPicture directing filmEditing screenplayOriginal supportingActor supportingActress</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nominated for: &lt;/b&gt;Picture, Director (Tom McCarthy), Supporting Actor (Mark Ruffalo), Supporting Actress (Rachel McAdams), Original Screenplay, Film Editing</t>
+  </si>
+  <si>
+    <t>This newspaper drama takes a "just the facts" approach to its true story, one that grows in sheer power over the course of its running time. Beginning with a few small snippets of information, the Boston Globe's "spotlight" team zeroes in on massive, systemic problems within the Catholic Church, meant to cover up the crimes of pedophile priests. It's a perfectly performed, beautifully written film about how hard it can be to take on deeply entrenched systems.</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.vox.com/culture/2015/11/13/9730224/spotlight-movie-review-boston"&gt;Read our review&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/56jw6tasomc" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>Creed</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt3076658/?ref_=nv_sr_1"&gt;&lt;i&gt;Creed&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>supportingActor</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nominated for: &lt;/b&gt;Supporting Actor (Sylvester Stallone)</t>
+  </si>
+  <si>
+    <t>This boxing film has only grown in my estimation since I first saw it. It's a spinoff of the &lt;i&gt;Rocky &lt;/i&gt;franchise that's centered on Donnie, the son of Rocky's greatest opponent, Apollo Creed (who died before Donnie was born). As played by Michael B. Jordan (in a performance that should have netted him a nomination), Donnie is wracked with guilt about his father's legacy, searching for absolution from a man he never met. Stallone steps back into Rocky, his most famous role, with winning ease.</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.vox.com/2015/11/26/9803138/creed-review-movie-rocky"&gt;Read our review&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/Uv554B7YHk4" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Availability:&lt;/b&gt; Digital download.</t>
+  </si>
+  <si>
+    <t>The Look of Silence</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt3521134/?ref_=nv_sr_1"&gt;&lt;i&gt;The Look of Silence&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>documentaryFeature</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nominated for: &lt;/b&gt;Documentary (Feature)</t>
+  </si>
+  <si>
+    <t>An optometrist named Adi seeks justice for his brother, who died in the Indonesian genocide of the 1960s. He does so by traveling the country to talk to those behind his brother's killing, asking them why they did what they did. And yet Adi must know he can't find justice, can barely even hope to hear a disingenuous apology. Still, he persists. The film, from director Joshua Oppenheimer, is a searing look at the cost of violence and a need for healing that might never come.</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.vox.com/2015/7/31/9079291/look-of-silence-review-documentary"&gt;Read our review&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/aA_ZHAs4M9k" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
     <t>The Big Short</t>
   </si>
   <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt1596363/?ref_=nv_sr_1"&gt;&lt;i&gt;The Big Short&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>bestPicture directing supportingActor filmEditing screenplayAdapted</t>
   </si>
   <si>
+    <t>&lt;b&gt;Nominated for: &lt;/b&gt;Picture, Director (Adam McKay), Supporting Actor (Christian Bale), Adapted Screenplay, Film Editing</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;The Big Short&lt;/i&gt; is many things. It's an attempt to remind viewers of the mass chaos of the financial crisis. It's a heist film, about the men who tried to pull one over on the financial industry and profit from the destruction they knew was coming. And it's an elaborate political essay about the dangers of unchecked capitalism. The film is sprawling and occasionally unfocused, but it also feels as alive and vital as anything out there right now. Oh, and it's really funny, too.</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.vox.com/culture/2015/12/12/9947796/the-big-short-review-movie-ryan-gosling"&gt;Read our review&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/LWr8hbUkG9s" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>Everything Will Be Okay</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt4324518/?ref_=nv_sr_1"&gt;&lt;i&gt;Everything Will Be Okay&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>shortFilmLive</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nominated for: &lt;/b&gt;Short Film (Live Action)</t>
+  </si>
+  <si>
+    <t>This German short is as grim as any of its fellow nominees in this category, but it's much better at&lt;b&gt; &lt;/b&gt;detailing how the consequences of one bad decision lead to even more bad decisions. A recently divorced father picks up his young daughter for their weekend together, and things go from promising to awful over the course of a long day. You'll see where the story is going early on, but you won't care.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/JPrRmiJXTVY" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Availability:&lt;/b&gt; Digital download as part of the Oscar-nominated shorts package.</t>
+  </si>
+  <si>
+    <t>Shaun the Sheep Movie</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt2872750/?ref_=nv_sr_1"&gt;&lt;i&gt;Shaun the Sheep Movie&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>animated</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nominated for: &lt;/b&gt;Animated Feature</t>
+  </si>
+  <si>
+    <t>Shaun the Sheep&lt;/i&gt; has its moving, heartfelt moments. It even has moments that are legitimately tearjerking. But for the most part, it's a perfectly executed series of gags that get funnier and funnier as the movie goes on. Shaun (who's a sheep, in case you hadn't guessed) and his flock end up in the big city looking for their farmer, who's suffering from amnesia. All the while, animal control pursues them. That's about it, but its stop-motion genius recalls the best of Looney Tunes.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/tQvwiOWpj7o" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt3170832/?ref_=nv_sr_1"&gt;&lt;i&gt;Room&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>bestPicture directing screenplayAdapted actress</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nominated for: &lt;/b&gt;Picture, Director (Lenny Abrahamson), Actress (Brie Larson), Adapted Screenplay</t>
+  </si>
+  <si>
+    <t>Convincing people to watch &lt;i&gt;Room&lt;/i&gt; is the movie's biggest obstacle, because on its surface it sounds like an ultra-grim slog. A woman (Larson) is held captive in a small shed in her kidnapper's back yard. She's given birth to a son, whom she tries to protect at all costs while hoping to escape her captivity. What's amazing is how life-affirming this story ends up being, and how wise it is about the perils of both being a parent and of being a child. It overreaches from time to time, but the acting is excellent.</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.vox.com/2015/10/23/9602314/room-movie-review-brie-larson"&gt;Read our review&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/6C6fZ-fwDws" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt2870648/?ref_=fn_al_tt_1"&gt;&lt;i&gt;Amy&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>The life of pop star Amy Winehouse is the subject of director Asif Kapadia's collage of footage, tracing her rise from awkward teenager to Grammy-winning sensation, and then chronicling her downfall as no one seems to care about her as anything other than a way to make money. It's a story you've heard many, many times before, but Kapadia finds new nuances in it. He also restores Winehouse's creative primacy, rather than leaving her as a cautionary tale. This woman could &lt;i&gt;sing&lt;/i&gt;, and &lt;i&gt;Amy&lt;/i&gt; remembers that.</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.vox.com/2016/2/11/10967458/best-documentaries-netflix"&gt;Read our review&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/Za3lZcrzzcM" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Availability:&lt;/b&gt; Streaming on &lt;a href="http://www.amazon.com/Amy-Winehouse/dp/B010UVG49Y/ref=sr_1_1?ie=UTF8&amp;qid=1456280460&amp;sr=8-1&amp;keywords=amy+movie"&gt;Amazon Prime&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>Streaming</t>
+  </si>
+  <si>
+    <t>Last Day of Freedom</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt4172096/?ref_=nv_sr_1"&gt;&lt;i&gt;Last Day of Freedom&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>documentaryShort</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nominated for: &lt;/b&gt;Documentary (Short Subject)</t>
+  </si>
+  <si>
+    <t>This loosely animated(!) documentary follows a man's agonizing decision over whether to turn in his brother for a crime the brother almost certainly committed — but one he also might have committed because of his struggles with PTSD. It's a heavy watch, but also one that feels unique in its focus on one small, very human dilemma.</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://player.vimeo.com/video/49610192?byline=0" width="500" height="281" frameborder="0" webkitallowfullscreen mozallowfullscreen allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Availability:&lt;/b&gt; Streaming on &lt;a href="http://www.netflix.com/title/80093842"&gt;Netflix&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>When Marnie Was There</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt3398268/?ref_=nv_sr_1"&gt;&lt;i&gt;When Marnie Was There&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>What might be the final film ever from acclaimed Japanese animation house Studio Ghibli is a relatively minor work in the studio's overall catalog — but still incredibly impressive when compared to the output of anybody else. A teenage girl, suffering from asthma attacks in the city, travels out to the seaside, where she meets a new friend who's hiding a big mystery. The film is almost too gentle in places, but its second half packs a serious emotional wallop.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/PZq4uuMP8ss" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Availability:&lt;/b&gt; On DVD and BluRay.</t>
+  </si>
+  <si>
+    <t>DVDOnly</t>
+  </si>
+  <si>
+    <t>Body Team 12</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt4430002/?ref_=nv_sr_1"&gt;&lt;i&gt;Body Team 12&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Just 13 minutes long, this short is a remarkable feat of reporting, as filmmaker David Darg follows Red Cross worker Garmai Sumo as she and her team (the one in the title) move through the streets of Ebola-infested Liberia, clearing out the dead and trying to eradicate the disease sweeping the country. It's an example of bold, gutsy filmmaking, and Sumo is a tremendously compelling figure.</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://player.vimeo.com/video/124786379" width="500" height="281" frameborder="0" webkitallowfullscreen mozallowfullscreen allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Availability: &lt;/b&gt;The film debuts on HBO Monday, March 14.</t>
+  </si>
+  <si>
+    <t>ComingSoon</t>
+  </si>
+  <si>
+    <t>Sicario</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt3397884/?ref_=nv_sr_1"&gt;&lt;i&gt;Sicario&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>cinematography soundEditing score</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nominated for: &lt;/b&gt;Cinematography, Original Score, Sound Editing</t>
+  </si>
+  <si>
+    <t>A dark crime drama set on the US/Mexican border, &lt;i&gt;Sicario&lt;/i&gt; considers the lawless lengths the US government may be willing to go to in order to win the drug war. Emily Blunt is riveting as Kate, a green FBI agent who begins to suspect her placement on a drug task force has reasons beyond her own eagerness to learn. Meanwhile, Benicio del Toro deserves his own nomination for playing a dark-hearted, mysterious figure who works alongside her. It's a bleakly beautiful crime drama, full of ominous portent.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/7XLQ1bkSLDo" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>Anomalisa</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt2401878/?ref_=nv_sr_1"&gt;&lt;i&gt;Anomalisa&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>The problem with &lt;i&gt;Anomalisa&lt;/i&gt; is that if you know literally anything about it — like, say, the central gimmick the film is based on — it will ruin the overall effect. Suffice to say that it's a stop-motion animation tale about a motivational speaker who has a crisis of conscience while on a business trip, and his relationship with the woman who might restore him to wholeness. It's at once a beautiful depiction of new love, a strange tale of white male self-pity, and a heartfelt attempt to understand depression.</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.vox.com/2016/1/3/10703484/anomalisa-review-charlie-kaufman"&gt;Read our review&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/vrrU3is7qvU" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>Chau, beyond the Lines</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt4084844/?ref_=nv_sr_1"&gt;&lt;i&gt;Chau, beyond the Lines&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>The best documentary shorts often showcase the very worst of humanity up against the best it has to offer. &lt;i&gt;Chau&lt;/i&gt; is such a film, juxtaposing the life of its title subject — a Vietnamese man born with severe birth defects, due to the lingering effects of Vietnam War–era chemical Agent Orange in his mother's body — with the strikingly beautiful art he creates by holding a paintbrush in his mouth.</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://player.vimeo.com/video/142945343" width="500" height="281" frameborder="0" webkitallowfullscreen mozallowfullscreen allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Availability:&lt;/b&gt; Streaming on &lt;a href="http://www.netflix.com/title/80092697"&gt;Netflix&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>Ex Machina</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt0470752/?ref_=nv_sr_1"&gt;&lt;i&gt;Ex Machina&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>visual screenplayOriginal</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nominated for: &lt;/b&gt;Original Screenplay, Visual Effects</t>
+  </si>
+  <si>
+    <t>Almost a stage play, &lt;i&gt;Ex Machina&lt;/i&gt; is the story of two men and the robot woman they both love — in very different ways. While they're isolated in a far-off forest retreat, complications ensue. That makes the film sound like a comedy, but it's actually an existential horror tale about both the death of humanity and the horrible things men do to women, even when they claim to care deeply about them. Alicia Vikander, who's nominated in the Supporting Actress category for &lt;i&gt;The Danish Girl&lt;/i&gt;, should have been nominated for this film instead.</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.vox.com/2015/4/11/8383637/ex-machina-review"&gt;Read our review&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/XYGzRB4Pnq8" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Availability:&lt;/b&gt; Streaming on &lt;a href="http://www.amazon.com/Ex-Machina-Alicia-Vikander/dp/B011KKCQH8/ref=sr_1_1?ie=UTF8&amp;qid=1456280505&amp;sr=8-1&amp;keywords=ex+machina"&gt;Amazon Prime&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>Son of Saul</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt3808342/?ref_=nv_sr_1"&gt;&lt;i&gt;Son of Saul&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nominated for: &lt;/b&gt;Foreign Language Film (Hungary)</t>
+  </si>
+  <si>
+    <t>You'll never have a film-going experience quite like &lt;i&gt;Son of Saul&lt;/i&gt;. The movie's running time is almost exclusively occupied by close-up shots of its lead actor, Géza Röhrig, whose face dominates the frame while everything happening around him blurs out. The reason for this is simple: Saul is a Sonderkommando, a Jewish man helping the Nazis run their death camps, and the blurring mimics the way he must obscure the horrors happening around them in his own mind. It's powerful stuff.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/sWQTfbXLTHQ" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>Bridge of Spies</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt3682448/?ref_=nv_sr_1"&gt;&lt;i&gt;Bridge of Spies&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>bestPicture production screenplayOriginal supportingActor score soundMixing</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nominated for: &lt;/b&gt;Picture, Supporting Actor (Mark Rylance), Original Screenplay, Original Score, Production Design, Sound Mixing</t>
+  </si>
+  <si>
+    <t>Steven Spielberg's latest film is a moving tribute to American values at their finest, and an examination of the idea that even though we might be separated by political differences or national borders, we're still all human beings. Tom Hanks plays a lawyer the US government has asked to negotiate the release of a downed fighter pilot being held by the Soviets. His visit to early 1960s Moscow is a triumph of both Spielberg's gentle humanism and American idealism.</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.vox.com/2015/10/19/9565811/bridge-of-spies-review"&gt;Read our review&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/2-2x3r1m2I4" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>Bear Story</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt3829254/?ref_=nv_sr_1"&gt;&lt;i&gt;Bear Story&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>This dialogue-free Chilean short at first seems like the charming story of an old bear who entertains children with an animatronic puppet show. But the longer the film goes on, the sadder it becomes, until you realize it's a child's first introduction to fascist dictatorships. It's almost too grim to work, but it ultimately comes together in the end.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/lvmnT6NnkT0" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>Steve Jobs</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt2080374/?ref_=nv_sr_1"&gt;&lt;i&gt;Steve Jobs&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>actor supportingActress</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nominated for: &lt;/b&gt;Actor (Michael Fassbender), Supporting Actress (Kate Winslet)</t>
+  </si>
+  <si>
+    <t>At one time, &lt;i&gt;Steve Jobs&lt;/i&gt; was hyped as a huge Oscar contender, but a disappointing box office put the kibosh on that. It's still worth watching, however, thanks to its dazzling performances, an intelligent script (by Aaron Sorkin), and innovative direction from Danny Boyle. The film's problems mostly lie in an ending that tries too hard to transcend and mostly ends up being mawkish, and a structure that tries too hard to repeat certain scenes across three different time periods. Still, it's frequently excellent.</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.vox.com/2015/10/9/9486881/steve-jobs-review-movie"&gt;Read our review&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/aEr6K1bwIVs" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>Star Wars: The Force Awakens</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt2488496/?ref_=nv_sr_1"&gt;&lt;i&gt;Star Wars: The Force Awakens&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>filmEditing soundMixing soundEditing visual score</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nominated for: &lt;/b&gt;Film Editing, Original Score, Sound Mixing, Sound Editing, Visual Effects</t>
+  </si>
+  <si>
+    <t>The biggest movie ever in the US and Canada (though only No. 2 worldwide), this latest chapter of the &lt;i&gt;Star Wars&lt;/i&gt; saga drops viewers into a world where Luke Skywalker has all but passed into myth, then introduces several new, engaging characters. The story is a remix of the original film, but the new characters are terrific, and there are exciting moments galore. &lt;i&gt;The Force Awakens&lt;/i&gt; almost deserves its nominations solely for the moment when a lightsaber flies into one character's hand.</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.vox.com/2015/12/17/10383876/star-wars-episode-vii-the-force-awakens-review"&gt;Read our review&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/sGbxmsDFVnE" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Availability:&lt;/b&gt; In theaters.</t>
+  </si>
+  <si>
+    <t>Cartel Land</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt4126304/?ref_=nv_sr_1"&gt;&lt;i&gt;Cartel Land&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Director Matthew Heineman's film follows two groups on either side of the long battles over the US/Mexican border. On the American side, Heineman follows an extragovernmental vigilante group that's attempting to stop any illegal immigration from happening by taking matters into its own hands, while on the Mexican side he follows a citizen organization using similar methods to try to stop the cartels. It's a fascinating examination of the limits of vigilante justice, with some incredible imagery.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/gkYBbBK0qoM" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Availability:&lt;/b&gt; Streaming on &lt;a href="http://www.netflix.com/title/80039606"&gt;Netflix&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>Stutterer</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt4817576/?ref_=nv_sr_1"&gt;&lt;i&gt;Stutterer&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>The entire plot of this British short is summed up in its title, but it's notable for two reasons. First, it bucks the trend of misery in the short film category, telling a story with some romance and hope around the edges. Second, it offers a genuinely thoughtful portrayal of how online communication can offer a lifeline to those who might otherwise be cut off from other people (like, say, a stutterer). As a bonus, it also boasts a killer closing shot.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/tnlBGQUn0tM" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>Boy &amp; the World</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt3183630/?ref_=nv_sr_1"&gt;&lt;i&gt;Boy &amp; the World&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>This charming Brazilian film follows a young boy who races off to the big city after his father seemingly disappears from the idyllic countryside the family once called home. It's episodic to a fault, sometimes more packed with incident than it is with meaning or story. But its lovely, graceful coda brings everything to a bittersweet close, and the images that director Alê Abreu comes up with are stunning. Plus, since it's dialogue-free, it can appeal to viewers of any language.</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.vox.com/culture/2015/12/9/9873262/boy-and-the-world-clip"&gt;Watch a clip&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/eqdrwu0NvY8" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>Claude Lanzmann: Spectres of the Shoah</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt4815426/?ref_=nv_sr_1"&gt;&lt;i&gt;Claude Lanzmann: Spectres of the Shoah&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Films about the Holocaust have long been Oscar favorites, but this might be the first film about a film about the Holocaust to be nominated. Director Adam Benzine sketches in a quick biography of the titular Lanzmann, who directed the seminal, nearly 10-hour Holocaust documentary &lt;i&gt;Shoah&lt;/i&gt;. Lanzmann is a great reporter, a remarkable filmmaker, and kind of a jerk. Benzine's film, meanwhile, doesn't entirely hang together but has several great sections.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/IJPWP3udqE8" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Availability:&lt;/b&gt; HBO will premiere &lt;i&gt;Claude Lanzmann: Spectres of the Shoah&lt;/i&gt; later this year.</t>
+  </si>
+  <si>
+    <t>A War</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt3830162/?ref_=nv_sr_1"&gt;&lt;i&gt;A War&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nominated for: &lt;/b&gt;Foreign Language Film (Denmark)</t>
+  </si>
+  <si>
+    <t>The Danish response to the Afghanistan War is at the center of this thoughtful film about soldiers away in battle as well as those left behind to worry about them. Director Tobias Lindholm (one of the main writers on the sensational Danish TV series &lt;i&gt;Borgen&lt;/i&gt; and the director of 2014's &lt;i&gt;A Hijacking&lt;/i&gt;) creates a film with immense empathy for everyone involved in the conflict, and he finds a way to tell a story about a war criminal without turning toward demagoguery on either side.</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.vox.com/2016/2/13/10983438/a-war-review"&gt;Read our review&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/N9nUIFYc5II" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>What Happened, Miss Simone?</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt4284010/?ref_=nv_sr_2"&gt;&lt;i&gt;What Happened, Miss Simone?&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>This biographical documentary of the life of Nina Simone occasionally feels as if it's posing big questions about her life that it's not remotely prepared to even think about answering. But that inquiring nature turns out to be its secret weapon. The titular question won't be answered, because it &lt;i&gt;can't&lt;/i&gt; be answered. Simone, like all of us, is a bundle of contradictions — brilliant one moment and seemingly weak the next — and director Liz Garbus perfectly embraces them.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/moOQXZxriKY" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Availability:&lt;/b&gt; Streaming on &lt;a href="http://www.netflix.com/title/70308063"&gt;Netflix&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>Winter on Fire: Ukraine's Fight for Freedom</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt4908644/?ref_=nv_sr_1"&gt;&lt;i&gt;Winter on Fire: Ukraine's Fight for Freedom&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Assembled via jaw-dropping "you are &lt;i&gt;there&lt;/i&gt;" footage, &lt;i&gt;Winter on Fire&lt;/i&gt; is the most conventional of this year's five documentary nominees, but it makes up for that with a story about the true cost of political revolution. Following 2013 protests in Ukraine that eventually became a legitimate revolution, the film possesses many moments of rage, despair, and, ultimately, hope. Director Evgeny Afineevsky's powerful images bring to life a story that came and went for most Americans.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/RibAQHeDia8" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Availability:&lt;/b&gt; Streaming on &lt;a href="http://www.netflix.com/title/80031666"&gt;Netflix&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>The Hunting Ground</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt4185572/?ref_=nv_sr_1"&gt;&lt;i&gt;The Hunting Ground&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>song</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nominated for: &lt;/b&gt;Original Song ("Til It Happens to You," performed by Lady Gaga)</t>
+  </si>
+  <si>
+    <t>This documentary about the serious problems America's universities face in trying to curb campus rape and sexual assault has prompted controversy (of course), but it's still a sobering, eye-opening watch about a problem that is too often glossed over with statistics. It's filled with heart-wrenching stories from young women whose lives have been torn apart, and it concludes with a powerful, sobering ballad from Gaga, who adds just the right level of gravitas.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/GBNHGi36nlM" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>The Martian</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt3659388/?ref_=nv_sr_1"&gt;&lt;i&gt;The Martian&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>bestPicture production actor visual screenplayAdapted soundMixing soundEditing</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nominated for: &lt;/b&gt;Picture, Actor (Matt Damon), Adapted Screenplay, Production Design, Sound Mixing, Sound Editing, Visual Effects</t>
+  </si>
+  <si>
+    <t>A thoroughly enjoyable film, &lt;i&gt;The Martian&lt;/i&gt; doesn't have a lot of meat on its bones, but it proves Hollywood can still make entertaining crowd pleasers that also provide some food for thought. Damon plays an astronaut who's stranded on Mars after a freak accident and must find a way to stay alive long enough for someone to rescue him. The film evaporates the second it's over, but it's hard to dislike something so relentlessly charming and filled with odes to the wonders of science.</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.vox.com/2015/10/1/9433701/the-martian-review-matt-damon"&gt;Read our review&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/ej3ioOneTy8" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>Theeb</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt3170902/?ref_=nv_sr_1"&gt;&lt;i&gt;Theeb&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nominated for: &lt;/b&gt;Foreign Language Film (Jordan)</t>
+  </si>
+  <si>
+    <t>A visually stunning film, &lt;i&gt;Theeb&lt;/i&gt; heads into the Jordanian desert by the side of a young boy (the title character) and his older brother. It's the 1910s, and the English have plans for the region. But Theeb doesn't know about any of that. He just wants to go on a grand adventure. Stories about kids coming of age in larger-than-life settings are Oscar favorites. What &lt;i&gt;Theeb&lt;/i&gt; lacks in novelty, it more than makes up for in its imagery, with its desert locations contributing to its feel of being a Western from some other land.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/pnEd_WSGtWQ" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>Straight Outta Compton</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt1398426/?ref_=nv_sr_1"&gt;&lt;i&gt;Straight Outta Compton&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>screenplayOriginal</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nominated for: &lt;/b&gt;Original Screenplay</t>
+  </si>
+  <si>
+    <t>A strictly by-the-numbers musical biopic gains some additional relevance because it's essentially the first one about rappers to be any good. Tracing the rise and fall of hip-hop supergroup N.W.A., &lt;i&gt;Straight Outta Compton&lt;/i&gt; has all the elements you'd expect from a movie like this — including electrifying musical performances and a manager who's scamming the band — but also a willingness to confront issues of racial inequality head on. Sadly, the last half-hour deflates until the movie flattens out.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/oyoew4T74_w" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>Sanjay's Super Team</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt4661600/?ref_=nv_sr_1"&gt;&lt;i&gt;Sanjay's Super Team&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>A young Indian boy, irritated because his father turned off the TV to pray, joins him for prayers and, inspired by his favorite show, imagines the Hindu pantheon as a team of superheroes. Pixar's shorts are usually good. This one is no exception, though it's ultimately a little light compared with some of its competition.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/222ztGhX4SE" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Availability:&lt;/b&gt; It's included on the DVD and digital download for the Pixar feature &lt;i&gt;The Good Dinosaur&lt;/i&gt;.</t>
+  </si>
+  <si>
+    <t>Day One</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt4122886/?ref_=nv_sr_2"&gt;&lt;i&gt;Day One&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>This is the year the Afghanistan War truly makes its presence known in the lower-ballot categories, as several movies either outright revolve around the conflict or touch on it glancingly. This short, following a young woman who works as a translator for the US Army, is the least of them, but it has a wonderfully emotional climax and a powerful lead performance from Layla Alizada.</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://player.vimeo.com/video/112778455" width="500" height="281" frameborder="0" webkitallowfullscreen mozallowfullscreen allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>We Can't Live Without Cosmos</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt3965660/?ref_=nv_sr_1"&gt;&lt;i&gt;We Can't Live Without Cosmos&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>This Russian production follows two cosmonauts who train together for years and years, until one is selected to go to space while the other remains on Earth. Its minimalist animation is charming, and there are some really fine gags and moving moments. But it takes a hard left turn into magical realism when it might otherwise double down on emotional realism, and that ends up hurting it.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/4KQKYzgusFI" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Availability: It's on &lt;a href="https://www.youtube.com/watch?v=2ClMGtB7yhc"&gt;YouTube&lt;/a&gt;.&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>The Hateful Eight</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt3460252/?ref_=nv_sr_1"&gt;&lt;i&gt;The Hateful Eight&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>supportingActress cinematography score</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nominated for: &lt;/b&gt;Supporting Actress (Jennifer Jason Leigh), Cinematography, Original Score</t>
+  </si>
+  <si>
+    <t>Director Quentin Tarantino can't make a boring film to save his life. However, this is one of his weaker movies, endlessly muddied and deeply confused. This story of several scurrilous Wild West outlaws trapped together in a roadhouse during a blizzard features some fantastic moments, especially in its second half, but also seems at all times like it's casting about for a reason to exist. Still, Leigh is well worth the price of admission.</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.vox.com/2015/12/24/10663068/the-hateful-eight-review-tarantino"&gt;Read our review&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/WSk7_I-WHV8" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Availability:&lt;/b&gt; In some theaters. Coming to DVD and digital download in March.</t>
+  </si>
+  <si>
+    <t>The Revenant</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt1663202/?ref_=nv_sr_1"&gt;&lt;i&gt;The Revenant&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>bestPicture costume directing filmEditing makeup production visual cinematography soundMixing soundEditing actor supportingActor</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nominated for: &lt;/b&gt;Picture, Director (Alejandro G. Iñárritu), Actor (Leonardo DiCaprio), Supporting Actor (Tom Hardy), Cinematography, Film Editing, Production Design, Costume Design, Makeup and Hairstyling, Sound Mixing, Sound Editing, Visual Effects</t>
+  </si>
+  <si>
+    <t>The most-nominated film of the evening isn't a bad picture by any means, but I wish it had more to it than a rote tale of frontier revenge. DiCaprio plays a fur trapper left for dead by a man (Hardy) who also killed his son. Naturally, DiCaprio stalks Hardy through stunning vistas, looking for vengeance. It's a beautiful film to look at, but the story is thin, and both DiCaprio and Hardy seem to have bought into the "more is more" school of acting. Still, the movie is worth seeing for the visuals.</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.vox.com/2015/12/25/10664936/the-revenant-review-leonardo-dicaprio"&gt;Read our review&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/QRfj1VCg16Y" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Availability: &lt;/b&gt;In theaters</t>
+  </si>
+  <si>
+    <t>Shok</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt4273570/?ref_=nv_sr_1"&gt;&lt;i&gt;Shok&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>The short film nominees are often incredibly grim, and this movie is no exception. Set during the war in Kosovo, it follows two young boys who are just trying to have somewhat normal childhoods around the edges of the conflict. There are some great images here, but just reading that plot summary will probably reveal that this film descends very quickly into misery.</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://player.vimeo.com/video/128283119?title=0&amp;byline=0&amp;portrait=0" width="500" height="281" frameborder="0" webkitallowfullscreen mozallowfullscreen allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Availability: &lt;/b&gt;Digital download as part of the Oscar-nominated shorts package.</t>
+  </si>
+  <si>
+    <t>Ave Maria</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt4419794/?ref_=nv_sr_1"&gt;&lt;i&gt;Ave Maria&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>This fitfully amusing trifle shows what happens when an Israeli family has car trouble in the West Bank and must seek the help of some Catholic nuns. The idea of three religions clashing in semi-comic fashion is a good one, but the short doesn't do nearly enough to develop it.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/4zkWieC8Z8w" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>A Girl in the River: The Price of Forgiveness</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt5144072/?ref_=nv_sr_1"&gt;&lt;i&gt;A Girl in the River: The Price of Forgiveness&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>This HBO production follows a young Pakistani woman who survives an honor killing — when one family member kills another for a transgression thought to have brought shame upon the family as a whole. The film interrogates the very idea of such killings, but the story it's trying to tell often feels far too large for its 40-minute running time.</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://player.vimeo.com/video/153547504" width="500" height="281" frameborder="0" webkitallowfullscreen mozallowfullscreen allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Availability: &lt;/b&gt;Premieres on HBO Monday, March 7.</t>
+  </si>
+  <si>
+    <t>Youth</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt3312830/?ref_=nv_sr_1"&gt;&lt;i&gt;Youth&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nominated for: &lt;/b&gt;Original Song ("Simple Song #3," performed by Sumi Jo)</t>
+  </si>
+  <si>
+    <t>Give the Academy credit on this one — its nomination for Original Song is deserved, as the song in question serves as the climax for the entire film. That film, from the usually brilliant Italian director Paolo Sorrentino, has some good ideas but is ultimately unsure of what it wants to say. Michael Caine and Harvey Keitel play old men longing for one last moment of greatness. There's a version of this story that wins every Oscar. But this wasn't it.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/-T7CM4di_0c" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Availability: &lt;/b&gt;Digital download or rental.</t>
+  </si>
+  <si>
+    <t>Racing Extinction</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt1618448/?ref_=nv_sr_1"&gt;&lt;i&gt;Racing Extinction&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nominated for: &lt;/b&gt;Original Song ("Manta Ray," performed by Antony Hegarty)</t>
+  </si>
+  <si>
+    <t>The Original Song category boasts two nominations for documentaries that &lt;i&gt;couldn't&lt;/i&gt; crack the Documentary Feature category — an unusual circumstance indeed. This is the weaker of the two, a barely structured look at how man's impact is destroying life on planet Earth. The information contained in the film is vital, but it lurches awkwardly from segment to segment, perhaps betraying its origins as a Discovery Channel special. The song is gorgeously sad, however.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/MwxyrLUdcss" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>Prologue</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt4955294/?ref_=fn_al_tt_1"&gt;&lt;i&gt;Prologue&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Director Richard Williams — who's probably best known for coordinating the animated parts of &lt;i&gt;Who Framed Roger Rabbit&lt;/i&gt; — is a legitimate living legend, which probably accounts for this film's nomination. But its story of men at war is, by any estimation, incredibly slight and mostly a showcase for some technically dazzling hand-drawn animation.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/G78qA9oreNE" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>The 100-Year-Old Man Who Climbed Out the Window and Disappeared</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt2113681/?ref_=nv_sr_2"&gt;&lt;i&gt;The 100-Year-Old Man Who Climbed Out the Window and Disappeared&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>makeup</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nominated for: &lt;/b&gt;Makeup and Hairstyling</t>
+  </si>
+  <si>
+    <t>This 2013 Swedish comedy, one of the biggest films ever at that country's box office, finally saw release in the US in 2015, making it eligible for the Oscars. It's basically &lt;i&gt;Forrest Gump&lt;/i&gt; with a 100-year-old man reflecting on his long life ... while also evading gangsters. Oh, and there's an elephant. This one eventually spins off its axis, but the first half or so is pretty fun, and the Oscar-nominated makeup is some of the best old-age makeup I've ever seen.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/owWrjyIC37k" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Availability: &lt;/b&gt;Streaming on Amazon Prime.</t>
+  </si>
+  <si>
+    <t>Fifty Shades of Grey</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt2322441/?ref_=nv_sr_2"&gt;&lt;i&gt;Fifty Shades of Grey&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nominated for: &lt;/b&gt;Original Song ("Earned It," performed by The Weeknd)</t>
+  </si>
+  <si>
+    <t>Yes, this movie is a fascinating disaster. Yes, it lifts most of the book's troublesome sexual politics wholesale. But buried somewhere inside of it is a terrific deconstruction of the very novel upon which it's based, and lead actress Dakota Johnson brings excellent comic timing to what should have been a very limp part. It's also got a much better ending than it deserves — and the Weeknd song it's nominated for is a sexy, soulful blur.</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.vox.com/2015/2/14/8038261/50-shades-of-grey-movie-review"&gt;Read our review&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/SfZWFDs0LxA" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Availability: &lt;/b&gt;Digital download or rental. Streaming for HBO subscribers.</t>
+  </si>
+  <si>
+    <t>The Danish Girl</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt0810819/?ref_=nv_sr_1"&gt;&lt;i&gt;The Danish Girl&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>costume production actor supportingActress</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nominated for: &lt;/b&gt;Actor (Eddie Redmayne), Supporting Actress (Alicia Vikander), Production Design, Costume Design</t>
+  </si>
+  <si>
+    <t>This film biography of Lili Elbe — the first person to successfully undergo gender reassignment surgery — wants to be the tasteful Oscar movie introduction to trans issues. But by trying to turn Elbe's life into a beautiful, gauzy tale, it ends up accidentally suggesting her transgender status is a strange desire she must vanquish — until a thoroughly confounding third act that essentially writes her out of her own story. Vikander is terrific, though.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/qDHsKg141RU" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Availability: &lt;/b&gt;Digital download.</t>
+  </si>
+  <si>
+    <t>Cinderella</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt1661199/?ref_=nv_sr_1"&gt;&lt;i&gt;Cinderella&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>costume</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nominated for: &lt;/b&gt;Costume Design</t>
+  </si>
+  <si>
+    <t>The venerable fairy tale gets an adaptation that's glorious to look at but ultimately hollow, at first seeming like a feminist reimagining of the classic story until it slowly loses any forward momentum or interesting subtext. Cate Blanchett is wonderful as the wicked stepmother, and the sets and costumes are very lovely. But the film is a pretty sizable disappointment, considering the talent of director Kenneth Branagh.</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.vox.com/2015/3/14/8213087/cinderella-review-disney-remake"&gt;Read our review&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/20DF6U1HcGQ" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Availability: &lt;/b&gt;Digital download or rental. Streaming for Starz subscribers.</t>
+  </si>
+  <si>
+    <t>Trumbo</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt3203606/?ref_=nv_sr_1"&gt;&lt;i&gt;Trumbo&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>actor</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nominated for: &lt;/b&gt;Actor (Bryan Cranston)</t>
+  </si>
+  <si>
+    <t>Cranston isn't just hammy in this biopic of blacklisted screenwriter Dalton Trumbo — he's actively bad. That's saying something for an actor who's never given a performance quite this miscalculated, but he's let down by a script that's never sure how to view its main character, other than as an avuncular fellow who sometimes disappointed his family. Cranston excels at finding dark corners of otherwise normal men. This film doesn't allow him that luxury.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/n0dZ_2ICpJE" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>Joy</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt2446980/?ref_=nv_sr_1"&gt;&lt;i&gt;Joy&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nominated for: &lt;/b&gt;Actress (Jennifer Lawrence)</t>
+  </si>
+  <si>
+    <t>David O. Russell's confused tale of a woman who reaches her wit's end — and then escapes a life of drudgery by inventing a mop — is a magnificent mess. Lawrence is great, as she always is, but she's also horribly miscast as a character who ages from her early 20s to her 40s over the course of the film. The actress is way too young for the part, and Russell doesn't have the foggiest idea how to tell a tale of feminist strength.</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.vox.com/2015/12/26/10666590/joy-review-movie-jennifer-lawrence"&gt;Read our review&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/SN4MLMHET7w" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Availability: &lt;/b&gt;Still playing in some theaters. Coming to DVD and digital download in the spring.</t>
+  </si>
+  <si>
+    <t>Spectre</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.imdb.com/title/tt2379713/?ref_=nv_sr_1"&gt;&lt;i&gt;Spectre&lt;/i&gt;&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Nominated for:&lt;/b&gt; Original Song ("Writing's on the Wall," performed by Sam Smith)</t>
+  </si>
+  <si>
+    <t>The latest James Bond film, perhaps Daniel Craig's final turn as the spy extraordinaire, is a dull, flat production that slowly runs out of ideas. While &lt;i&gt;Spectre&lt;/i&gt; contains a couple of good action sequences — particularly the opening barnburner — it isn't just one of the most disappointing films in Bond history (especially after following 2012's sublime &lt;i&gt;Skyfall&lt;/i&gt;). It's one of the worst.</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.vox.com/2015/11/6/9678580/spectre-james-bond-review"&gt;Read our review&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/7GqClqvlObY" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>awardType2</t>
+  </si>
+  <si>
+    <t>awardType3</t>
+  </si>
+  <si>
+    <t>awardType4</t>
+  </si>
+  <si>
+    <t>awardType5</t>
+  </si>
+  <si>
+    <t>awardType6</t>
+  </si>
+  <si>
+    <t>awardType7</t>
+  </si>
+  <si>
+    <t>awardType8</t>
+  </si>
+  <si>
+    <t>awardType9</t>
+  </si>
+  <si>
+    <t>awardType10</t>
+  </si>
+  <si>
+    <t>awardType11</t>
+  </si>
+  <si>
+    <t>awardType12</t>
+  </si>
+  <si>
+    <t>Best Picture</t>
+  </si>
+  <si>
+    <t>Directing</t>
+  </si>
+  <si>
+    <t>Supporting Actor</t>
+  </si>
+  <si>
+    <t>Film Editing</t>
+  </si>
+  <si>
+    <t>Adapted Screenplay</t>
+  </si>
+  <si>
     <t>Four outsiders to Wall Street use what are sometimes perceived as eccentric insights into the U.S. financial markets to predict the meltdowns of the housing market and big banks in 2008. Betting together on the coming catastrophe, the quartet manages to invest shrewdly and amass a fortune, all while exposing the corruption of several large financial institutions.</t>
   </si>
   <si>
-    <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/LWr8hbUkG9s" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
-  </si>
-  <si>
-    <t>Bridge of Spies</t>
-  </si>
-  <si>
-    <t>bestPicture productionDesign screenplayOriginal supportingActor score soundMixing</t>
-  </si>
-  <si>
-    <t>Brooklyn</t>
-  </si>
-  <si>
-    <t>bestPicture screenplayAdapted actress</t>
+    <t>Production Design</t>
+  </si>
+  <si>
+    <t>Original Screenplay</t>
+  </si>
+  <si>
+    <t>Original Score</t>
+  </si>
+  <si>
+    <t>Sound Mixing</t>
+  </si>
+  <si>
+    <t>Actress</t>
   </si>
   <si>
     <t>Mad Max</t>
   </si>
   <si>
-    <t>bestPicture costume directing filmEditing makeupstyling productionDesign visual cinematography soundMixing soundEditing</t>
-  </si>
-  <si>
-    <t>The Martian</t>
-  </si>
-  <si>
-    <t>bestPicture productionDesign actor visual screenplayAdapted soundMixing soundEditing</t>
-  </si>
-  <si>
-    <t>The Revenant</t>
-  </si>
-  <si>
-    <t>bestPicture costume directing filmEditing makeupstyling productionDesign visual cinematography soundMixing soundEditing actor supportingActor</t>
-  </si>
-  <si>
-    <t>Room</t>
-  </si>
-  <si>
-    <t>bestPicture directing screenplayAdapted actress</t>
-  </si>
-  <si>
-    <t>Spotlight</t>
-  </si>
-  <si>
-    <t>bestPicture directing filmEditing screenplayOriginal supportingActor supportingActress</t>
-  </si>
-  <si>
-    <t>Anomalisa</t>
-  </si>
-  <si>
-    <t>animated</t>
+    <t>Costume Design</t>
+  </si>
+  <si>
+    <t>Makeup and Hairstyling</t>
+  </si>
+  <si>
+    <t>Visual Effects</t>
+  </si>
+  <si>
+    <t>Cinematography</t>
+  </si>
+  <si>
+    <t>Sound Editing</t>
+  </si>
+  <si>
+    <t>Actor</t>
+  </si>
+  <si>
+    <t>Supporting Actress</t>
+  </si>
+  <si>
+    <t>Animated Feature Film</t>
   </si>
   <si>
     <t>Boy and the World</t>
-  </si>
-  <si>
-    <t>Inside Out</t>
-  </si>
-  <si>
-    <t>animated screenplayOriginal</t>
-  </si>
-  <si>
-    <t>Shaun the Sheep Movie</t>
-  </si>
-  <si>
-    <t>When Marnie Was There</t>
-  </si>
-  <si>
-    <t>Carol</t>
-  </si>
-  <si>
-    <t>costume screenplayAdapted score cinematography actress supportingActress</t>
-  </si>
-  <si>
-    <t>Cinderella</t>
-  </si>
-  <si>
-    <t>costume</t>
-  </si>
-  <si>
-    <t>The Danish Girl</t>
-  </si>
-  <si>
-    <t>costume productionDesign actor supportingActress</t>
-  </si>
-  <si>
-    <t>Amy</t>
-  </si>
-  <si>
-    <t>documentaryFeature</t>
-  </si>
-  <si>
-    <t>Cartel Land</t>
-  </si>
-  <si>
-    <t>The Look of Silence</t>
-  </si>
-  <si>
-    <t>What Happened, Miss Simone?</t>
-  </si>
-  <si>
-    <t>Winter on Fire: Ukraine's Fight for Freedom</t>
-  </si>
-  <si>
-    <t>Body Team 12</t>
-  </si>
-  <si>
-    <t>documentaryShort</t>
-  </si>
-  <si>
-    <t>Chau, beyond the Lines</t>
-  </si>
-  <si>
-    <t>Claude Lanzmann: Spectres of the Shoah</t>
-  </si>
-  <si>
-    <t>A Girl in the River: The Price of Forgiveness</t>
-  </si>
-  <si>
-    <t>Last Day of Freedom</t>
-  </si>
-  <si>
-    <t>Star Wars: The Force Awakens</t>
-  </si>
-  <si>
-    <t>filmEditing soundMixing soundEditing visual score</t>
-  </si>
-  <si>
-    <t>Embrace of the Serpent</t>
-  </si>
-  <si>
-    <t>foreign</t>
-  </si>
-  <si>
-    <t>Mustang</t>
-  </si>
-  <si>
-    <t>Son of Saul</t>
-  </si>
-  <si>
-    <t>Theeb</t>
-  </si>
-  <si>
-    <t>A War</t>
-  </si>
-  <si>
-    <t>The 100-Year-Old Man Who Climbed Out the Window and Disappeared</t>
-  </si>
-  <si>
-    <t>makeup</t>
-  </si>
-  <si>
-    <t>Bear Story</t>
-  </si>
-  <si>
-    <t>shortFilmAnimated</t>
-  </si>
-  <si>
-    <t>Prologue</t>
-  </si>
-  <si>
-    <t>We Can't Live Without Cosmos</t>
-  </si>
-  <si>
-    <t>World of Tomorrow</t>
-  </si>
-  <si>
-    <t>Sanjay's Super Team</t>
-  </si>
-  <si>
-    <t>Ave Maria</t>
-  </si>
-  <si>
-    <t>shortFilmLive</t>
-  </si>
-  <si>
-    <t>Day One</t>
-  </si>
-  <si>
-    <t>Shok</t>
-  </si>
-  <si>
-    <t>Stutterer</t>
-  </si>
-  <si>
-    <t>Everything Will Be Okay</t>
-  </si>
-  <si>
-    <t>Ex Machina</t>
-  </si>
-  <si>
-    <t>visual screenplayOriginal</t>
-  </si>
-  <si>
-    <t>Straight Outta Compton</t>
-  </si>
-  <si>
-    <t>screenplayOriginal</t>
-  </si>
-  <si>
-    <t>Trumbo</t>
-  </si>
-  <si>
-    <t>actor</t>
-  </si>
-  <si>
-    <t>Steve Jobs</t>
-  </si>
-  <si>
-    <t>actor supportingActress</t>
-  </si>
-  <si>
-    <t>45 Years</t>
-  </si>
-  <si>
-    <t>actress</t>
-  </si>
-  <si>
-    <t>Joy</t>
-  </si>
-  <si>
-    <t>Creed</t>
-  </si>
-  <si>
-    <t>supportingActor</t>
-  </si>
-  <si>
-    <t>The Hateful Eight</t>
-  </si>
-  <si>
-    <t>supportingActress cinematography score</t>
-  </si>
-  <si>
-    <t>Sicario</t>
-  </si>
-  <si>
-    <t>cinematography soundEditing score</t>
-  </si>
-  <si>
-    <t>Fifty Shades of Grey</t>
-  </si>
-  <si>
-    <t>song</t>
-  </si>
-  <si>
-    <t>Youth</t>
-  </si>
-  <si>
-    <t>Racing Extinction</t>
-  </si>
-  <si>
-    <t>The Hunting Ground</t>
-  </si>
-  <si>
-    <t>Spectre</t>
-  </si>
-  <si>
-    <t>awardType2</t>
-  </si>
-  <si>
-    <t>awardType3</t>
-  </si>
-  <si>
-    <t>awardType4</t>
-  </si>
-  <si>
-    <t>awardType5</t>
-  </si>
-  <si>
-    <t>awardType6</t>
-  </si>
-  <si>
-    <t>awardType7</t>
-  </si>
-  <si>
-    <t>awardType8</t>
-  </si>
-  <si>
-    <t>awardType9</t>
-  </si>
-  <si>
-    <t>awardType10</t>
-  </si>
-  <si>
-    <t>awardType11</t>
-  </si>
-  <si>
-    <t>awardType12</t>
-  </si>
-  <si>
-    <t>Best Picture</t>
-  </si>
-  <si>
-    <t>Directing</t>
-  </si>
-  <si>
-    <t>Supporting Actor</t>
-  </si>
-  <si>
-    <t>Film Editing</t>
-  </si>
-  <si>
-    <t>Adapted Screenplay</t>
-  </si>
-  <si>
-    <t>Production Design</t>
-  </si>
-  <si>
-    <t>Original Screenplay</t>
-  </si>
-  <si>
-    <t>Original Score</t>
-  </si>
-  <si>
-    <t>Sound Mixing</t>
-  </si>
-  <si>
-    <t>Actress</t>
-  </si>
-  <si>
-    <t>Costume Design</t>
-  </si>
-  <si>
-    <t>Makeup and Hairstyling</t>
-  </si>
-  <si>
-    <t>Visual Effects</t>
-  </si>
-  <si>
-    <t>Cinematography</t>
-  </si>
-  <si>
-    <t>Sound Editing</t>
-  </si>
-  <si>
-    <t>Actor</t>
-  </si>
-  <si>
-    <t>Supporting Actress</t>
-  </si>
-  <si>
-    <t>Animated Feature Film</t>
   </si>
   <si>
     <t>Documentary (Feature)</t>
@@ -624,8 +1460,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection activeCell="C2" sqref="C2" pane="topRight"/>
+      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
@@ -637,727 +1475,1774 @@
       <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2">
-        <v>57.0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="2">
-        <v>56.0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="2">
-        <v>55.0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>37</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="2">
-        <v>54.0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4.0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>46</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="2">
-        <v>53.0</v>
-      </c>
-      <c r="C6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="2">
-        <v>52.0</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>59</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6.0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>61</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="2">
-        <v>51.0</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>65</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7.0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>68</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="2">
-        <v>50.0</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>73</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8.0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>76</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="2">
-        <v>49.0</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>82</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9.0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>85</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="2">
-        <v>48.0</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
+        <v>89</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10.0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>92</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="2">
-        <v>47.0</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>97</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="2">
+        <v>11.0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>18</v>
+        <v>100</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="2">
-        <v>46.0</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
+        <v>104</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="2">
+        <v>12.0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>18</v>
+        <v>107</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="2">
-        <v>45.0</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>34</v>
+        <v>111</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="2">
+        <v>13.0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>18</v>
+        <v>114</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="2">
-        <v>44.0</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>41</v>
+        <v>118</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="2">
-        <v>43.0</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>43</v>
+        <v>124</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="2">
-        <v>42.0</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>45</v>
+        <v>131</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="2">
-        <v>41.0</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z18" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="2">
-        <v>40.0</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>47</v>
+        <v>145</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="2">
-        <v>39.0</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>47</v>
+        <v>151</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="2">
-        <v>38.0</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>47</v>
+        <v>157</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="2">
-        <v>37.0</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>47</v>
+        <v>163</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="2">
-        <v>36.0</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>53</v>
+        <v>168</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="2">
-        <v>35.0</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>53</v>
+        <v>173</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="2">
-        <v>34.0</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>53</v>
+        <v>181</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="2">
-        <v>33.0</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>53</v>
+        <v>186</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="2">
-        <v>32.0</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>53</v>
+        <v>193</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="2">
-        <v>31.0</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>59</v>
+        <v>197</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="2">
-        <v>30.0</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>61</v>
+        <v>204</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C29" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="2">
+        <v>212</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C30" s="2">
         <v>29.0</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>61</v>
+      <c r="D30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="2">
-        <v>28.0</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>61</v>
+        <v>217</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C31" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="2">
-        <v>27.0</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>61</v>
+        <v>221</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C32" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="2">
-        <v>26.0</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>61</v>
+        <v>226</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C33" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="2">
-        <v>25.0</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>67</v>
+        <v>231</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C34" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="2">
-        <v>24.0</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>69</v>
+        <v>237</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C35" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="2">
-        <v>23.0</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>69</v>
+        <v>242</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C36" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="2">
-        <v>22.0</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>69</v>
+        <v>247</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C37" s="2">
+        <v>36.0</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="2">
-        <v>21.0</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>69</v>
+        <v>253</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C38" s="2">
+        <v>37.0</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>69</v>
+        <v>260</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C39" s="2">
+        <v>38.0</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" s="2">
-        <v>19.0</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>75</v>
+        <v>265</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C40" s="2">
+        <v>39.0</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>75</v>
+        <v>271</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C41" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>75</v>
+        <v>276</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C42" s="2">
+        <v>41.0</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>75</v>
+        <v>280</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C43" s="2">
+        <v>42.0</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B44" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>75</v>
+        <v>285</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C44" s="2">
+        <v>43.0</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>81</v>
+        <v>293</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C45" s="2">
+        <v>44.0</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B46" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>83</v>
+        <v>301</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C46" s="2">
+        <v>45.0</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>85</v>
+        <v>306</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C47" s="2">
+        <v>46.0</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B48" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>87</v>
+        <v>310</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C48" s="2">
+        <v>47.0</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B49" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>89</v>
+        <v>315</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C49" s="2">
+        <v>48.0</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B50" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>89</v>
+        <v>321</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C50" s="2">
+        <v>49.0</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>92</v>
+        <v>326</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C51" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B52" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>94</v>
+        <v>330</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C52" s="2">
+        <v>51.0</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B53" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>96</v>
+        <v>337</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C53" s="2">
+        <v>52.0</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B54" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>98</v>
+        <v>344</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C54" s="2">
+        <v>53.0</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B55" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>98</v>
+        <v>351</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C55" s="2">
+        <v>54.0</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B56" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>98</v>
+        <v>359</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C56" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B57" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>98</v>
+        <v>365</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C57" s="2">
+        <v>56.0</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B58" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>98</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C58" s="2">
+        <v>57.0</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$J$58"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1374,75 +3259,75 @@
         <v>9</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>103</v>
+        <v>378</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>104</v>
+        <v>379</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>105</v>
+        <v>380</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>106</v>
+        <v>381</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>107</v>
+        <v>382</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>108</v>
+        <v>383</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>109</v>
+        <v>384</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>110</v>
+        <v>385</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>111</v>
+        <v>386</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>112</v>
+        <v>387</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>113</v>
+        <v>388</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="B2" s="9">
         <v>13.0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>114</v>
+        <v>389</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>115</v>
+        <v>390</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>116</v>
+        <v>391</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>117</v>
+        <v>392</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>118</v>
+        <v>393</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -1452,37 +3337,37 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8" t="s">
-        <v>17</v>
+        <v>394</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="Q2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>19</v>
+        <v>186</v>
       </c>
       <c r="B3" s="9">
         <v>12.0</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>114</v>
+        <v>389</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>119</v>
+        <v>395</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>120</v>
+        <v>396</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>116</v>
+        <v>391</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>121</v>
+        <v>397</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>122</v>
+        <v>398</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -1491,28 +3376,28 @@
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8" t="s">
-        <v>17</v>
+        <v>394</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="Q3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B4" s="9">
         <v>11.0</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>114</v>
+        <v>389</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>118</v>
+        <v>393</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>123</v>
+        <v>399</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -1524,87 +3409,87 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8" t="s">
-        <v>17</v>
+        <v>394</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="Q4" s="8"/>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>23</v>
+        <v>400</v>
       </c>
       <c r="B5" s="9">
         <v>10.0</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>114</v>
+        <v>389</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>124</v>
+        <v>401</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>115</v>
+        <v>390</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>117</v>
+        <v>392</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>125</v>
+        <v>402</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>119</v>
+        <v>395</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>126</v>
+        <v>403</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>127</v>
+        <v>404</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>122</v>
+        <v>398</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>128</v>
+        <v>405</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8" t="s">
-        <v>17</v>
+        <v>394</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="Q5" s="8"/>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>25</v>
+        <v>253</v>
       </c>
       <c r="B6" s="9">
         <v>9.0</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>114</v>
+        <v>389</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>119</v>
+        <v>395</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>129</v>
+        <v>406</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>126</v>
+        <v>403</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>118</v>
+        <v>393</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>122</v>
+        <v>398</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>128</v>
+        <v>405</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -1612,82 +3497,82 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8" t="s">
-        <v>17</v>
+        <v>394</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="Q6" s="8"/>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>27</v>
+        <v>293</v>
       </c>
       <c r="B7" s="9">
         <v>8.0</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>114</v>
+        <v>389</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>124</v>
+        <v>401</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>115</v>
+        <v>390</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>117</v>
+        <v>392</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>125</v>
+        <v>402</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>119</v>
+        <v>395</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>126</v>
+        <v>403</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>127</v>
+        <v>404</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>122</v>
+        <v>398</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>128</v>
+        <v>405</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>129</v>
+        <v>406</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>116</v>
+        <v>391</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>17</v>
+        <v>394</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="8"/>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="B8" s="9">
         <v>7.0</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>114</v>
+        <v>389</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>115</v>
+        <v>390</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>118</v>
+        <v>393</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>123</v>
+        <v>399</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -1698,37 +3583,37 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8" t="s">
-        <v>17</v>
+        <v>394</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="Q8" s="8"/>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="B9" s="9">
         <v>6.0</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>114</v>
+        <v>389</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>115</v>
+        <v>390</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>117</v>
+        <v>392</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>120</v>
+        <v>396</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>116</v>
+        <v>391</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>130</v>
+        <v>407</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -1737,22 +3622,22 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8" t="s">
-        <v>17</v>
+        <v>394</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="Q9" s="8"/>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="B10" s="9">
         <v>5.0</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>131</v>
+        <v>408</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1766,22 +3651,22 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8" t="s">
-        <v>17</v>
+        <v>394</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="Q10" s="8"/>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>35</v>
+        <v>409</v>
       </c>
       <c r="B11" s="9">
         <v>4.0</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>131</v>
+        <v>408</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1795,25 +3680,25 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8" t="s">
-        <v>17</v>
+        <v>394</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="Q11" s="8"/>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="B12" s="9">
         <v>3.0</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>131</v>
+        <v>408</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>120</v>
+        <v>396</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -1826,22 +3711,22 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8" t="s">
-        <v>17</v>
+        <v>394</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="Q12" s="8"/>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="B13" s="9">
         <v>2.0</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>131</v>
+        <v>408</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1855,22 +3740,22 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8" t="s">
-        <v>17</v>
+        <v>394</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="Q13" s="8"/>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="B14" s="9">
         <v>1.0</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>131</v>
+        <v>408</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1884,35 +3769,35 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8" t="s">
-        <v>17</v>
+        <v>394</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="Q14" s="8"/>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
-        <v>124</v>
+        <v>401</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>118</v>
+        <v>393</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>121</v>
+        <v>397</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>127</v>
+        <v>404</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>123</v>
+        <v>399</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>130</v>
+        <v>407</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -1926,11 +3811,11 @@
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>42</v>
+        <v>351</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8" t="s">
-        <v>124</v>
+        <v>401</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1949,20 +3834,20 @@
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>44</v>
+        <v>344</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8" t="s">
-        <v>124</v>
+        <v>401</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>119</v>
+        <v>395</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>129</v>
+        <v>406</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>130</v>
+        <v>407</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -1978,11 +3863,11 @@
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8" t="s">
-        <v>132</v>
+        <v>410</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -2001,11 +3886,11 @@
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>48</v>
+        <v>212</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8" t="s">
-        <v>132</v>
+        <v>410</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -2024,11 +3909,11 @@
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8" t="s">
-        <v>132</v>
+        <v>410</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -2047,11 +3932,11 @@
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>50</v>
+        <v>237</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
-        <v>132</v>
+        <v>410</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -2070,11 +3955,11 @@
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
-        <v>51</v>
+        <v>242</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
-        <v>132</v>
+        <v>410</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2093,11 +3978,11 @@
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8" t="s">
-        <v>133</v>
+        <v>411</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2116,11 +4001,11 @@
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>133</v>
+        <v>411</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2139,11 +4024,11 @@
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>55</v>
+        <v>226</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>133</v>
+        <v>411</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2162,11 +4047,11 @@
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>56</v>
+        <v>310</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8" t="s">
-        <v>133</v>
+        <v>411</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2185,11 +4070,11 @@
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8" t="s">
-        <v>133</v>
+        <v>411</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2208,23 +4093,23 @@
     </row>
     <row r="28">
       <c r="A28" s="8" t="s">
-        <v>58</v>
+        <v>204</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
-        <v>117</v>
+        <v>392</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>122</v>
+        <v>398</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>128</v>
+        <v>405</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>126</v>
+        <v>403</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>121</v>
+        <v>397</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -2239,11 +4124,11 @@
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>134</v>
+        <v>412</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2262,11 +4147,11 @@
     </row>
     <row r="30">
       <c r="A30" s="8" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>134</v>
+        <v>412</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2285,11 +4170,11 @@
     </row>
     <row r="31">
       <c r="A31" s="8" t="s">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
-        <v>134</v>
+        <v>412</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2308,11 +4193,11 @@
     </row>
     <row r="32">
       <c r="A32" s="8" t="s">
-        <v>64</v>
+        <v>260</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8" t="s">
-        <v>134</v>
+        <v>412</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2331,11 +4216,11 @@
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>65</v>
+        <v>231</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
-        <v>134</v>
+        <v>412</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2354,11 +4239,11 @@
     </row>
     <row r="34">
       <c r="A34" s="8" t="s">
-        <v>66</v>
+        <v>330</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8" t="s">
-        <v>125</v>
+        <v>402</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2377,11 +4262,11 @@
     </row>
     <row r="35">
       <c r="A35" s="8" t="s">
-        <v>68</v>
+        <v>193</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
-        <v>135</v>
+        <v>413</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2400,11 +4285,11 @@
     </row>
     <row r="36">
       <c r="A36" s="8" t="s">
-        <v>70</v>
+        <v>326</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8" t="s">
-        <v>135</v>
+        <v>413</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2423,11 +4308,11 @@
     </row>
     <row r="37">
       <c r="A37" s="8" t="s">
-        <v>71</v>
+        <v>280</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
-        <v>135</v>
+        <v>413</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2446,11 +4331,11 @@
     </row>
     <row r="38">
       <c r="A38" s="8" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8" t="s">
-        <v>135</v>
+        <v>413</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2469,11 +4354,11 @@
     </row>
     <row r="39">
       <c r="A39" s="8" t="s">
-        <v>73</v>
+        <v>271</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8" t="s">
-        <v>135</v>
+        <v>413</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2492,11 +4377,11 @@
     </row>
     <row r="40">
       <c r="A40" s="8" t="s">
-        <v>74</v>
+        <v>306</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8" t="s">
-        <v>136</v>
+        <v>414</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2515,11 +4400,11 @@
     </row>
     <row r="41">
       <c r="A41" s="8" t="s">
-        <v>76</v>
+        <v>276</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8" t="s">
-        <v>136</v>
+        <v>414</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2538,11 +4423,11 @@
     </row>
     <row r="42">
       <c r="A42" s="8" t="s">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8" t="s">
-        <v>136</v>
+        <v>414</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2561,11 +4446,11 @@
     </row>
     <row r="43">
       <c r="A43" s="8" t="s">
-        <v>78</v>
+        <v>217</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8" t="s">
-        <v>136</v>
+        <v>414</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2584,11 +4469,11 @@
     </row>
     <row r="44">
       <c r="A44" s="8" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8" t="s">
-        <v>136</v>
+        <v>414</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2607,14 +4492,14 @@
     </row>
     <row r="45">
       <c r="A45" s="8" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8" t="s">
-        <v>126</v>
+        <v>403</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>137</v>
+        <v>415</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
@@ -2632,11 +4517,11 @@
     </row>
     <row r="46">
       <c r="A46" s="8" t="s">
-        <v>82</v>
+        <v>265</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8" t="s">
-        <v>137</v>
+        <v>415</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2655,11 +4540,11 @@
     </row>
     <row r="47">
       <c r="A47" s="8" t="s">
-        <v>84</v>
+        <v>359</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8" t="s">
-        <v>129</v>
+        <v>406</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2678,14 +4563,14 @@
     </row>
     <row r="48">
       <c r="A48" s="8" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8" t="s">
-        <v>129</v>
+        <v>406</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>130</v>
+        <v>407</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
@@ -2703,11 +4588,11 @@
     </row>
     <row r="49">
       <c r="A49" s="8" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="8" t="s">
-        <v>123</v>
+        <v>399</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2726,11 +4611,11 @@
     </row>
     <row r="50">
       <c r="A50" s="8" t="s">
-        <v>90</v>
+        <v>365</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8" t="s">
-        <v>123</v>
+        <v>399</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2749,11 +4634,11 @@
     </row>
     <row r="51">
       <c r="A51" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8" t="s">
-        <v>116</v>
+        <v>391</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2772,17 +4657,17 @@
     </row>
     <row r="52">
       <c r="A52" s="8" t="s">
-        <v>93</v>
+        <v>285</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8" t="s">
-        <v>130</v>
+        <v>407</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>127</v>
+        <v>404</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>121</v>
+        <v>397</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
@@ -2799,17 +4684,17 @@
     </row>
     <row r="53">
       <c r="A53" s="8" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8" t="s">
-        <v>127</v>
+        <v>404</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>128</v>
+        <v>405</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>121</v>
+        <v>397</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -2826,11 +4711,11 @@
     </row>
     <row r="54">
       <c r="A54" s="8" t="s">
-        <v>97</v>
+        <v>337</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8" t="s">
-        <v>138</v>
+        <v>416</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2849,11 +4734,11 @@
     </row>
     <row r="55">
       <c r="A55" s="8" t="s">
-        <v>99</v>
+        <v>315</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="8" t="s">
-        <v>138</v>
+        <v>416</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2872,11 +4757,11 @@
     </row>
     <row r="56">
       <c r="A56" s="8" t="s">
-        <v>100</v>
+        <v>321</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8" t="s">
-        <v>138</v>
+        <v>416</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2895,11 +4780,11 @@
     </row>
     <row r="57">
       <c r="A57" s="8" t="s">
-        <v>101</v>
+        <v>247</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8" t="s">
-        <v>138</v>
+        <v>416</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2918,11 +4803,11 @@
     </row>
     <row r="58">
       <c r="A58" s="8" t="s">
-        <v>102</v>
+        <v>372</v>
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="8" t="s">
-        <v>138</v>
+        <v>416</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2962,31 +4847,31 @@
         <v>2</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>139</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>140</v>
+        <v>418</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>141</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>140</v>
+        <v>418</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>141</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>140</v>
+        <v>418</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>141</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>

--- a/google_drive_cache/1nH4LH15wO3nx31vO9CtqP3HkJItg98LdxMHsy321TQw.xlsx
+++ b/google_drive_cache/1nH4LH15wO3nx31vO9CtqP3HkJItg98LdxMHsy321TQw.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="421">
   <si>
     <t>name</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>The best film of 2015 must, alas, join the long list of deserving projects that were overlooked by the Oscars' Best Picture category. (At least it's in good company.) Blanchett and Mara play two women navigating a love affair in 1950s New York, even though neither is quite willing to label it as such. This is a tremendous movie about feeling all alone in the world, then finding somebody else to feel a little bit less alone with, and in its beautiful images and marvelous performances it courses with deeply buried emotions. Oscar didn't recognize &lt;i&gt;Carol &lt;/i&gt;for its top prize; history surely will.</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.vox.com/culture/2015/11/20/9769890/carol-movie-review"&gt;Read our review&lt;/a&gt;.</t>
   </si>
   <si>
     <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/679wr31SXWk" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
@@ -1519,1720 +1522,1723 @@
       <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2">
         <v>2.0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2">
         <v>3.0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2">
         <v>4.0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2">
         <v>5.0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2">
         <v>6.0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2">
         <v>7.0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" s="2">
         <v>8.0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2">
         <v>9.0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C11" s="2">
         <v>10.0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C12" s="2">
         <v>11.0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C13" s="2">
         <v>12.0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C14" s="2">
         <v>13.0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C15" s="2">
         <v>14.0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C16" s="2">
         <v>15.0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C17" s="2">
         <v>16.0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C18" s="2">
         <v>17.0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AA18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C19" s="2">
         <v>18.0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C20" s="2">
         <v>19.0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C21" s="2">
         <v>20.0</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C22" s="2">
         <v>21.0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C23" s="2">
         <v>22.0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C24" s="2">
         <v>23.0</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C25" s="2">
         <v>24.0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C26" s="2">
         <v>25.0</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C27" s="2">
         <v>26.0</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C28" s="2">
         <v>27.0</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C29" s="2">
         <v>28.0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C30" s="2">
         <v>29.0</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C31" s="2">
         <v>30.0</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C32" s="2">
         <v>31.0</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C33" s="2">
         <v>32.0</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C34" s="2">
         <v>33.0</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C35" s="2">
         <v>34.0</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C36" s="2">
         <v>35.0</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C37" s="2">
         <v>36.0</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C38" s="2">
         <v>37.0</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C39" s="2">
         <v>38.0</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C40" s="2">
         <v>39.0</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C41" s="2">
         <v>40.0</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C42" s="2">
         <v>41.0</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C43" s="2">
         <v>42.0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C44" s="2">
         <v>43.0</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C45" s="2">
         <v>44.0</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C46" s="2">
         <v>45.0</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C47" s="2">
         <v>46.0</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C48" s="2">
         <v>47.0</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C49" s="2">
         <v>48.0</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C50" s="2">
         <v>49.0</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C51" s="2">
         <v>50.0</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C52" s="2">
         <v>51.0</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C53" s="2">
         <v>52.0</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C54" s="2">
         <v>53.0</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C55" s="2">
         <v>54.0</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C56" s="2">
         <v>55.0</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C57" s="2">
         <v>56.0</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C58" s="2">
         <v>57.0</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59">
@@ -3265,37 +3271,37 @@
         <v>12</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>14</v>
@@ -3309,25 +3315,25 @@
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B2" s="9">
         <v>13.0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -3337,37 +3343,37 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q2" s="8"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B3" s="9">
         <v>12.0</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3376,28 +3382,28 @@
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" s="9">
         <v>11.0</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -3409,87 +3415,87 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="8"/>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B5" s="9">
         <v>10.0</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q5" s="8"/>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B6" s="9">
         <v>9.0</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>406</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>405</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -3497,82 +3503,82 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q6" s="8"/>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B7" s="9">
         <v>8.0</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F7" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="N7" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="O7" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>394</v>
-      </c>
       <c r="P7" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="8"/>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8" s="9">
         <v>7.0</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -3583,37 +3589,37 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q8" s="8"/>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B9" s="9">
         <v>6.0</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>391</v>
-      </c>
       <c r="H9" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -3622,22 +3628,22 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q9" s="8"/>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B10" s="9">
         <v>5.0</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -3651,22 +3657,22 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q10" s="8"/>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B11" s="9">
         <v>4.0</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -3680,25 +3686,25 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q11" s="8"/>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" s="9">
         <v>3.0</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -3711,22 +3717,22 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="O12" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q12" s="8"/>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B13" s="9">
         <v>2.0</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -3740,22 +3746,22 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q13" s="8"/>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B14" s="9">
         <v>1.0</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -3769,10 +3775,10 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q14" s="8"/>
     </row>
@@ -3782,22 +3788,22 @@
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -3811,11 +3817,11 @@
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -3834,20 +3840,20 @@
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -3863,11 +3869,11 @@
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -3886,11 +3892,11 @@
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -3909,11 +3915,11 @@
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -3932,11 +3938,11 @@
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -3955,11 +3961,11 @@
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -3978,11 +3984,11 @@
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -4001,11 +4007,11 @@
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -4024,11 +4030,11 @@
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -4047,11 +4053,11 @@
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -4070,11 +4076,11 @@
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -4093,23 +4099,23 @@
     </row>
     <row r="28">
       <c r="A28" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D28" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="G28" s="8" t="s">
         <v>398</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>397</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -4124,11 +4130,11 @@
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -4147,11 +4153,11 @@
     </row>
     <row r="30">
       <c r="A30" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -4170,11 +4176,11 @@
     </row>
     <row r="31">
       <c r="A31" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -4193,11 +4199,11 @@
     </row>
     <row r="32">
       <c r="A32" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -4216,11 +4222,11 @@
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -4239,11 +4245,11 @@
     </row>
     <row r="34">
       <c r="A34" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -4262,11 +4268,11 @@
     </row>
     <row r="35">
       <c r="A35" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -4285,11 +4291,11 @@
     </row>
     <row r="36">
       <c r="A36" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -4308,11 +4314,11 @@
     </row>
     <row r="37">
       <c r="A37" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -4331,11 +4337,11 @@
     </row>
     <row r="38">
       <c r="A38" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -4354,11 +4360,11 @@
     </row>
     <row r="39">
       <c r="A39" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -4377,11 +4383,11 @@
     </row>
     <row r="40">
       <c r="A40" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -4400,11 +4406,11 @@
     </row>
     <row r="41">
       <c r="A41" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -4423,11 +4429,11 @@
     </row>
     <row r="42">
       <c r="A42" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -4446,11 +4452,11 @@
     </row>
     <row r="43">
       <c r="A43" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -4469,11 +4475,11 @@
     </row>
     <row r="44">
       <c r="A44" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -4492,14 +4498,14 @@
     </row>
     <row r="45">
       <c r="A45" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
@@ -4517,11 +4523,11 @@
     </row>
     <row r="46">
       <c r="A46" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -4540,11 +4546,11 @@
     </row>
     <row r="47">
       <c r="A47" s="8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -4563,14 +4569,14 @@
     </row>
     <row r="48">
       <c r="A48" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
@@ -4588,11 +4594,11 @@
     </row>
     <row r="49">
       <c r="A49" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -4611,11 +4617,11 @@
     </row>
     <row r="50">
       <c r="A50" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -4634,11 +4640,11 @@
     </row>
     <row r="51">
       <c r="A51" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -4657,17 +4663,17 @@
     </row>
     <row r="52">
       <c r="A52" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
@@ -4684,17 +4690,17 @@
     </row>
     <row r="53">
       <c r="A53" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -4711,11 +4717,11 @@
     </row>
     <row r="54">
       <c r="A54" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -4734,11 +4740,11 @@
     </row>
     <row r="55">
       <c r="A55" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -4757,11 +4763,11 @@
     </row>
     <row r="56">
       <c r="A56" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -4780,11 +4786,11 @@
     </row>
     <row r="57">
       <c r="A57" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -4803,11 +4809,11 @@
     </row>
     <row r="58">
       <c r="A58" s="8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -4847,31 +4853,31 @@
         <v>2</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/google_drive_cache/1nH4LH15wO3nx31vO9CtqP3HkJItg98LdxMHsy321TQw.xlsx
+++ b/google_drive_cache/1nH4LH15wO3nx31vO9CtqP3HkJItg98LdxMHsy321TQw.xlsx
@@ -27,7 +27,7 @@
     <t>title</t>
   </si>
   <si>
-    <t>Change me in the spreadsheet</t>
+    <t>Oscars 2016: Every movie nominated for an Academy Award, ranked</t>
   </si>
   <si>
     <t>meta_description</t>
@@ -1331,7 +1331,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -1339,6 +1339,9 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1450,7 +1453,7 @@
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1472,22 +1475,22 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -3261,1574 +3264,1574 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="10">
         <v>13.0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="Q2" s="8"/>
+      <c r="Q2" s="9"/>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="10">
         <v>12.0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8" t="s">
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="Q3" s="8"/>
+      <c r="Q3" s="9"/>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="10">
         <v>11.0</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="Q4" s="8"/>
+      <c r="Q4" s="9"/>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="10">
         <v>10.0</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8" t="s">
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="Q5" s="8"/>
+      <c r="Q5" s="9"/>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="10">
         <v>9.0</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8" t="s">
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="Q6" s="8"/>
+      <c r="Q6" s="9"/>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="10">
         <v>8.0</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="O7" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="P7" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="Q7" s="8"/>
+      <c r="Q7" s="9"/>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="10">
         <v>7.0</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="P8" s="8" t="s">
+      <c r="P8" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="Q8" s="8"/>
+      <c r="Q8" s="9"/>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="10">
         <v>6.0</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8" t="s">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="P9" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="Q9" s="8"/>
+      <c r="Q9" s="9"/>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="10">
         <v>5.0</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="P10" s="8" t="s">
+      <c r="P10" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="Q10" s="8"/>
+      <c r="Q10" s="9"/>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="10">
         <v>4.0</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="P11" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="Q11" s="8"/>
+      <c r="Q11" s="9"/>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="10">
         <v>3.0</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="P12" s="8" t="s">
+      <c r="P12" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="Q12" s="8"/>
+      <c r="Q12" s="9"/>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="10">
         <v>2.0</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="P13" s="8" t="s">
+      <c r="P13" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="Q13" s="8"/>
+      <c r="Q13" s="9"/>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="10">
         <v>1.0</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="P14" s="8" t="s">
+      <c r="P14" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="Q14" s="8"/>
+      <c r="Q14" s="9"/>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
     </row>
     <row r="21">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
     </row>
     <row r="22">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8" t="s">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
     </row>
     <row r="26">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8" t="s">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
     </row>
     <row r="27">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8" t="s">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8" t="s">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
     </row>
     <row r="29">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
     </row>
     <row r="30">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8" t="s">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8" t="s">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
     </row>
     <row r="32">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8" t="s">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
     </row>
     <row r="33">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8" t="s">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
     </row>
     <row r="34">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
     </row>
     <row r="35">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8" t="s">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
     </row>
     <row r="36">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8" t="s">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
     </row>
     <row r="37">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8" t="s">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
     </row>
     <row r="38">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8" t="s">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
     </row>
     <row r="39">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8" t="s">
+      <c r="B39" s="9"/>
+      <c r="C39" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
     </row>
     <row r="40">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8" t="s">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
     </row>
     <row r="41">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8" t="s">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
     </row>
     <row r="42">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8" t="s">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
     </row>
     <row r="43">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8" t="s">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
     </row>
     <row r="44">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8" t="s">
+      <c r="B44" s="9"/>
+      <c r="C44" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
     </row>
     <row r="45">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8" t="s">
+      <c r="B45" s="9"/>
+      <c r="C45" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
     </row>
     <row r="46">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8" t="s">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
     </row>
     <row r="47">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8" t="s">
+      <c r="B47" s="9"/>
+      <c r="C47" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
     </row>
     <row r="48">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8" t="s">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
     </row>
     <row r="49">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8" t="s">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
     </row>
     <row r="50">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8" t="s">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
     </row>
     <row r="51">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8" t="s">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
     </row>
     <row r="52">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8" t="s">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
     </row>
     <row r="53">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8" t="s">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
     </row>
     <row r="54">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8" t="s">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
     </row>
     <row r="55">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8" t="s">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
     </row>
     <row r="56">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8" t="s">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
     </row>
     <row r="57">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8" t="s">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
     </row>
     <row r="58">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8" t="s">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="8"/>
-      <c r="P58" s="8"/>
-      <c r="Q58" s="8"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4849,34 +4852,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>420</v>
       </c>
     </row>

--- a/google_drive_cache/1nH4LH15wO3nx31vO9CtqP3HkJItg98LdxMHsy321TQw.xlsx
+++ b/google_drive_cache/1nH4LH15wO3nx31vO9CtqP3HkJItg98LdxMHsy321TQw.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="422">
   <si>
     <t>name</t>
   </si>
@@ -27,13 +27,16 @@
     <t>title</t>
   </si>
   <si>
-    <t>Oscars 2016: Every movie nominated for an Academy Award, ranked</t>
+    <t>Oscars 2016: every movie nominated for an Academy Award, ranked</t>
   </si>
   <si>
     <t>meta_description</t>
   </si>
   <si>
     <t>tweet_text</t>
+  </si>
+  <si>
+    <t>The definitive ranking of all 57 movies nominated for an Oscar this year</t>
   </si>
   <si>
     <t>pinterest_text</t>
@@ -1438,23 +1441,23 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1473,1775 +1476,1779 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="2" width="23.29"/>
+    <col customWidth="1" min="6" max="6" width="44.71"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2">
         <v>2.0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2">
         <v>3.0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2">
         <v>4.0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2">
         <v>5.0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2">
         <v>6.0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2">
         <v>7.0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2">
         <v>8.0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C10" s="2">
         <v>9.0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C11" s="2">
         <v>10.0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C12" s="2">
         <v>11.0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C13" s="2">
         <v>12.0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C14" s="2">
         <v>13.0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C15" s="2">
         <v>14.0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C16" s="2">
         <v>15.0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C17" s="2">
         <v>16.0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C18" s="2">
         <v>17.0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AA18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C19" s="2">
         <v>18.0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C20" s="2">
         <v>19.0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C21" s="2">
         <v>20.0</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C22" s="2">
         <v>21.0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C23" s="2">
         <v>22.0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C24" s="2">
         <v>23.0</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C25" s="2">
         <v>24.0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C26" s="2">
         <v>25.0</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C27" s="2">
         <v>26.0</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C28" s="2">
         <v>27.0</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C29" s="2">
         <v>28.0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C30" s="2">
         <v>29.0</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C31" s="2">
         <v>30.0</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C32" s="2">
         <v>31.0</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C33" s="2">
         <v>32.0</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C34" s="2">
         <v>33.0</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C35" s="2">
         <v>34.0</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C36" s="2">
         <v>35.0</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C37" s="2">
         <v>36.0</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C38" s="2">
         <v>37.0</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C39" s="2">
         <v>38.0</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C40" s="2">
         <v>39.0</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C41" s="2">
         <v>40.0</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C42" s="2">
         <v>41.0</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C43" s="2">
         <v>42.0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C44" s="2">
         <v>43.0</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C45" s="2">
         <v>44.0</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C46" s="2">
         <v>45.0</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C47" s="2">
         <v>46.0</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C48" s="2">
         <v>47.0</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C49" s="2">
         <v>48.0</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C50" s="2">
         <v>49.0</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C51" s="2">
         <v>50.0</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C52" s="2">
         <v>51.0</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C53" s="2">
         <v>52.0</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C54" s="2">
         <v>53.0</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C55" s="2">
         <v>54.0</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C56" s="2">
         <v>55.0</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C57" s="2">
         <v>56.0</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C58" s="2">
         <v>57.0</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59">
@@ -3265,78 +3272,78 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B2" s="10">
         <v>13.0</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -3346,37 +3353,37 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q2" s="9"/>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B3" s="10">
         <v>12.0</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -3385,28 +3392,28 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q3" s="9"/>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="10">
         <v>11.0</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -3418,87 +3425,87 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="9"/>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B5" s="10">
         <v>10.0</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q5" s="9"/>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B6" s="10">
         <v>9.0</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>407</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>406</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -3506,82 +3513,82 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q6" s="9"/>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B7" s="10">
         <v>8.0</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F7" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="N7" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="H7" s="9" t="s">
+      <c r="O7" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>395</v>
-      </c>
       <c r="P7" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="9"/>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B8" s="10">
         <v>7.0</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -3592,37 +3599,37 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q8" s="9"/>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B9" s="10">
         <v>6.0</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E9" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>392</v>
-      </c>
       <c r="H9" s="9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -3631,22 +3638,22 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q9" s="9"/>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B10" s="10">
         <v>5.0</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -3660,22 +3667,22 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q10" s="9"/>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B11" s="10">
         <v>4.0</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -3689,25 +3696,25 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q11" s="9"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B12" s="10">
         <v>3.0</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -3720,22 +3727,22 @@
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q12" s="9"/>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B13" s="10">
         <v>2.0</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -3749,22 +3756,22 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q13" s="9"/>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B14" s="10">
         <v>1.0</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -3778,35 +3785,35 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q14" s="9"/>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -3820,11 +3827,11 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -3843,20 +3850,20 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -3872,11 +3879,11 @@
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -3895,11 +3902,11 @@
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -3918,11 +3925,11 @@
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -3941,11 +3948,11 @@
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -3964,11 +3971,11 @@
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -3987,11 +3994,11 @@
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -4010,11 +4017,11 @@
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -4033,11 +4040,11 @@
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -4056,11 +4063,11 @@
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
@@ -4079,11 +4086,11 @@
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
@@ -4102,23 +4109,23 @@
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D28" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="G28" s="9" t="s">
         <v>399</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>398</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
@@ -4133,11 +4140,11 @@
     </row>
     <row r="29">
       <c r="A29" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -4156,11 +4163,11 @@
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -4179,11 +4186,11 @@
     </row>
     <row r="31">
       <c r="A31" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -4202,11 +4209,11 @@
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -4225,11 +4232,11 @@
     </row>
     <row r="33">
       <c r="A33" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -4248,11 +4255,11 @@
     </row>
     <row r="34">
       <c r="A34" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -4271,11 +4278,11 @@
     </row>
     <row r="35">
       <c r="A35" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -4294,11 +4301,11 @@
     </row>
     <row r="36">
       <c r="A36" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -4317,11 +4324,11 @@
     </row>
     <row r="37">
       <c r="A37" s="9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -4340,11 +4347,11 @@
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -4363,11 +4370,11 @@
     </row>
     <row r="39">
       <c r="A39" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -4386,11 +4393,11 @@
     </row>
     <row r="40">
       <c r="A40" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -4409,11 +4416,11 @@
     </row>
     <row r="41">
       <c r="A41" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -4432,11 +4439,11 @@
     </row>
     <row r="42">
       <c r="A42" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -4455,11 +4462,11 @@
     </row>
     <row r="43">
       <c r="A43" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -4478,11 +4485,11 @@
     </row>
     <row r="44">
       <c r="A44" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
@@ -4501,14 +4508,14 @@
     </row>
     <row r="45">
       <c r="A45" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
@@ -4526,11 +4533,11 @@
     </row>
     <row r="46">
       <c r="A46" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -4549,11 +4556,11 @@
     </row>
     <row r="47">
       <c r="A47" s="9" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -4572,14 +4579,14 @@
     </row>
     <row r="48">
       <c r="A48" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
@@ -4597,11 +4604,11 @@
     </row>
     <row r="49">
       <c r="A49" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
@@ -4620,11 +4627,11 @@
     </row>
     <row r="50">
       <c r="A50" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
@@ -4643,11 +4650,11 @@
     </row>
     <row r="51">
       <c r="A51" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
@@ -4666,17 +4673,17 @@
     </row>
     <row r="52">
       <c r="A52" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
@@ -4693,17 +4700,17 @@
     </row>
     <row r="53">
       <c r="A53" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
@@ -4720,11 +4727,11 @@
     </row>
     <row r="54">
       <c r="A54" s="9" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
@@ -4743,11 +4750,11 @@
     </row>
     <row r="55">
       <c r="A55" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
@@ -4766,11 +4773,11 @@
     </row>
     <row r="56">
       <c r="A56" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
@@ -4789,11 +4796,11 @@
     </row>
     <row r="57">
       <c r="A57" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
@@ -4812,11 +4819,11 @@
     </row>
     <row r="58">
       <c r="A58" s="9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
@@ -4856,31 +4863,31 @@
         <v>2</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>

--- a/google_drive_cache/1nH4LH15wO3nx31vO9CtqP3HkJItg98LdxMHsy321TQw.xlsx
+++ b/google_drive_cache/1nH4LH15wO3nx31vO9CtqP3HkJItg98LdxMHsy321TQw.xlsx
@@ -876,7 +876,7 @@
     <t>&lt;iframe width="560" height="315" src="https://www.youtube.com/embed/4KQKYzgusFI" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;</t>
   </si>
   <si>
-    <t>&lt;b&gt;Availability: It's on &lt;a href="https://www.youtube.com/watch?v=2ClMGtB7yhc"&gt;YouTube&lt;/a&gt;.&lt;/b&gt;</t>
+    <t>&lt;b&gt;Availability:&lt;/b&gt; It's on &lt;a href="https://www.youtube.com/watch?v=2ClMGtB7yhc"&gt;YouTube&lt;/a&gt;.</t>
   </si>
   <si>
     <t>The Hateful Eight</t>

--- a/google_drive_cache/1nH4LH15wO3nx31vO9CtqP3HkJItg98LdxMHsy321TQw.xlsx
+++ b/google_drive_cache/1nH4LH15wO3nx31vO9CtqP3HkJItg98LdxMHsy321TQw.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="423">
   <si>
     <t>name</t>
   </si>
@@ -45,7 +45,10 @@
     <t>social_image</t>
   </si>
   <si>
-    <t>http://placekitten.com/g/200/300</t>
+    <t>https://cdn2.vox-cdn.com/uploads/chorus_asset/file/6103589/oscars-2016.0.png</t>
+  </si>
+  <si>
+    <t>twitter_gif</t>
   </si>
   <si>
     <t>film</t>
@@ -1288,7 +1291,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1300,6 +1303,11 @@
     <font/>
     <font>
       <sz val="10.0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1334,7 +1342,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -1347,31 +1355,34 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
   </cellXfs>
@@ -1460,8 +1471,16 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B6"/>
+  </hyperlinks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1483,1772 +1502,1772 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2">
         <v>2.0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2">
         <v>3.0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2">
         <v>4.0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2">
         <v>5.0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2">
         <v>6.0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2">
         <v>7.0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2">
         <v>8.0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2">
         <v>9.0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C11" s="2">
         <v>10.0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C12" s="2">
         <v>11.0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C13" s="2">
         <v>12.0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C14" s="2">
         <v>13.0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C15" s="2">
         <v>14.0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C16" s="2">
         <v>15.0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C17" s="2">
         <v>16.0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C18" s="2">
         <v>17.0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AA18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C19" s="2">
         <v>18.0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C20" s="2">
         <v>19.0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C21" s="2">
         <v>20.0</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C22" s="2">
         <v>21.0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C23" s="2">
         <v>22.0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C24" s="2">
         <v>23.0</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C25" s="2">
         <v>24.0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C26" s="2">
         <v>25.0</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C27" s="2">
         <v>26.0</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C28" s="2">
         <v>27.0</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C29" s="2">
         <v>28.0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C30" s="2">
         <v>29.0</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C31" s="2">
         <v>30.0</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C32" s="2">
         <v>31.0</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C33" s="2">
         <v>32.0</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C34" s="2">
         <v>33.0</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C35" s="2">
         <v>34.0</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C36" s="2">
         <v>35.0</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C37" s="2">
         <v>36.0</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C38" s="2">
         <v>37.0</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C39" s="2">
         <v>38.0</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C40" s="2">
         <v>39.0</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C41" s="2">
         <v>40.0</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C42" s="2">
         <v>41.0</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C43" s="2">
         <v>42.0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C44" s="2">
         <v>43.0</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C45" s="2">
         <v>44.0</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C46" s="2">
         <v>45.0</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C47" s="2">
         <v>46.0</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C48" s="2">
         <v>47.0</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C49" s="2">
         <v>48.0</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C50" s="2">
         <v>49.0</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C51" s="2">
         <v>50.0</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C52" s="2">
         <v>51.0</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C53" s="2">
         <v>52.0</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C54" s="2">
         <v>53.0</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C55" s="2">
         <v>54.0</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C56" s="2">
         <v>55.0</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C57" s="2">
         <v>56.0</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C58" s="2">
         <v>57.0</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59">
@@ -3272,78 +3291,78 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B2" s="10">
         <v>13.0</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -3353,37 +3372,37 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q2" s="9"/>
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B3" s="10">
         <v>12.0</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -3392,28 +3411,28 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q3" s="9"/>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" s="10">
         <v>11.0</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -3425,87 +3444,87 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="9"/>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B5" s="10">
         <v>10.0</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q5" s="9"/>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B6" s="10">
         <v>9.0</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>408</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>407</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -3513,82 +3532,82 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q6" s="9"/>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B7" s="10">
         <v>8.0</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F7" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="N7" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="H7" s="9" t="s">
+      <c r="O7" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>396</v>
-      </c>
       <c r="P7" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q7" s="9"/>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B8" s="10">
         <v>7.0</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -3599,37 +3618,37 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q8" s="9"/>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B9" s="10">
         <v>6.0</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E9" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>393</v>
-      </c>
       <c r="H9" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -3638,22 +3657,22 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q9" s="9"/>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B10" s="10">
         <v>5.0</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -3667,22 +3686,22 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q10" s="9"/>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B11" s="10">
         <v>4.0</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -3696,25 +3715,25 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q11" s="9"/>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="10">
         <v>3.0</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -3727,22 +3746,22 @@
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q12" s="9"/>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B13" s="10">
         <v>2.0</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -3756,22 +3775,22 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q13" s="9"/>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B14" s="10">
         <v>1.0</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -3785,35 +3804,35 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q14" s="9"/>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -3827,11 +3846,11 @@
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -3850,20 +3869,20 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -3879,11 +3898,11 @@
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -3902,11 +3921,11 @@
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -3925,11 +3944,11 @@
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -3948,11 +3967,11 @@
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -3971,11 +3990,11 @@
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -3994,11 +4013,11 @@
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -4017,11 +4036,11 @@
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -4040,11 +4059,11 @@
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -4063,11 +4082,11 @@
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
@@ -4086,11 +4105,11 @@
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
@@ -4109,23 +4128,23 @@
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D28" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="G28" s="9" t="s">
         <v>400</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>399</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
@@ -4140,11 +4159,11 @@
     </row>
     <row r="29">
       <c r="A29" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -4163,11 +4182,11 @@
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -4186,11 +4205,11 @@
     </row>
     <row r="31">
       <c r="A31" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -4209,11 +4228,11 @@
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -4232,11 +4251,11 @@
     </row>
     <row r="33">
       <c r="A33" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -4255,11 +4274,11 @@
     </row>
     <row r="34">
       <c r="A34" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -4278,11 +4297,11 @@
     </row>
     <row r="35">
       <c r="A35" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -4301,11 +4320,11 @@
     </row>
     <row r="36">
       <c r="A36" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -4324,11 +4343,11 @@
     </row>
     <row r="37">
       <c r="A37" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -4347,11 +4366,11 @@
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -4370,11 +4389,11 @@
     </row>
     <row r="39">
       <c r="A39" s="9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -4393,11 +4412,11 @@
     </row>
     <row r="40">
       <c r="A40" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -4416,11 +4435,11 @@
     </row>
     <row r="41">
       <c r="A41" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -4439,11 +4458,11 @@
     </row>
     <row r="42">
       <c r="A42" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -4462,11 +4481,11 @@
     </row>
     <row r="43">
       <c r="A43" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -4485,11 +4504,11 @@
     </row>
     <row r="44">
       <c r="A44" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
@@ -4508,14 +4527,14 @@
     </row>
     <row r="45">
       <c r="A45" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
@@ -4533,11 +4552,11 @@
     </row>
     <row r="46">
       <c r="A46" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -4556,11 +4575,11 @@
     </row>
     <row r="47">
       <c r="A47" s="9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -4579,14 +4598,14 @@
     </row>
     <row r="48">
       <c r="A48" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
@@ -4604,11 +4623,11 @@
     </row>
     <row r="49">
       <c r="A49" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
@@ -4627,11 +4646,11 @@
     </row>
     <row r="50">
       <c r="A50" s="9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
@@ -4650,11 +4669,11 @@
     </row>
     <row r="51">
       <c r="A51" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
@@ -4673,17 +4692,17 @@
     </row>
     <row r="52">
       <c r="A52" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
@@ -4700,17 +4719,17 @@
     </row>
     <row r="53">
       <c r="A53" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
@@ -4727,11 +4746,11 @@
     </row>
     <row r="54">
       <c r="A54" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
@@ -4750,11 +4769,11 @@
     </row>
     <row r="55">
       <c r="A55" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
@@ -4773,11 +4792,11 @@
     </row>
     <row r="56">
       <c r="A56" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
@@ -4796,11 +4815,11 @@
     </row>
     <row r="57">
       <c r="A57" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
@@ -4819,11 +4838,11 @@
     </row>
     <row r="58">
       <c r="A58" s="9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
@@ -4863,31 +4882,31 @@
         <v>2</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="13" t="s">
         <v>421</v>
       </c>
+      <c r="B2" s="13" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="13" t="s">
         <v>421</v>
       </c>
+      <c r="B3" s="13" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="13" t="s">
         <v>421</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>422</v>
       </c>
     </row>
   </sheetData>

--- a/google_drive_cache/1nH4LH15wO3nx31vO9CtqP3HkJItg98LdxMHsy321TQw.xlsx
+++ b/google_drive_cache/1nH4LH15wO3nx31vO9CtqP3HkJItg98LdxMHsy321TQw.xlsx
@@ -45,7 +45,7 @@
     <t>social_image</t>
   </si>
   <si>
-    <t>https://cdn2.vox-cdn.com/uploads/chorus_asset/file/6103589/oscars-2016.0.png</t>
+    <t>https://cdn0.vox-cdn.com/uploads/chorus_asset/file/6103393/oscar_ranking.0.gif</t>
   </si>
   <si>
     <t>twitter_gif</t>
@@ -1306,7 +1306,6 @@
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
       <color rgb="FF0000FF"/>
     </font>
     <font>

--- a/google_drive_cache/1nH4LH15wO3nx31vO9CtqP3HkJItg98LdxMHsy321TQw.xlsx
+++ b/google_drive_cache/1nH4LH15wO3nx31vO9CtqP3HkJItg98LdxMHsy321TQw.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="425">
   <si>
     <t>name</t>
   </si>
@@ -27,12 +27,21 @@
     <t>title</t>
   </si>
   <si>
+    <t>The complete ranking of this  year's Oscar-nominated films</t>
+  </si>
+  <si>
+    <t>hed</t>
+  </si>
+  <si>
     <t>Oscars 2016: every movie nominated for an Academy Award, ranked</t>
   </si>
   <si>
     <t>meta_description</t>
   </si>
   <si>
+    <t>And yes, Fifty Shades of Grey is nominated for an Oscar.</t>
+  </si>
+  <si>
     <t>tweet_text</t>
   </si>
   <si>
@@ -45,10 +54,7 @@
     <t>social_image</t>
   </si>
   <si>
-    <t>https://cdn0.vox-cdn.com/uploads/chorus_asset/file/6103393/oscar_ranking.0.gif</t>
-  </si>
-  <si>
-    <t>twitter_gif</t>
+    <t>https://cdn3.vox-cdn.com/uploads/chorus_asset/file/6103589/oscars-2016.0.png</t>
   </si>
   <si>
     <t>film</t>
@@ -597,7 +603,7 @@
     <t>&lt;b&gt;Nominated for: &lt;/b&gt;Picture, Supporting Actor (Mark Rylance), Original Screenplay, Original Score, Production Design, Sound Mixing</t>
   </si>
   <si>
-    <t>Steven Spielberg's latest film is a moving tribute to American values at their finest, and an examination of the idea that even though we might be separated by political differences or national borders, we're still all human beings. Tom Hanks plays a lawyer the US government has asked to negotiate the release of a downed fighter pilot being held by the Soviets. His visit to early 1960s Moscow is a triumph of both Spielberg's gentle humanism and American idealism.</t>
+    <t>Steven Spielberg's latest film is a moving tribute to American values at their finest, and an examination of the idea that even though we might be separated by political differences or national borders, we're still all human beings. Tom Hanks plays a lawyer the US government has asked to negotiate the release of a downed fighter pilot being held by the Soviets. His visit to early 1960s Berlin is a triumph of both Spielberg's gentle humanism and American idealism.</t>
   </si>
   <si>
     <t>&lt;a href="http://www.vox.com/2015/10/19/9565811/bridge-of-spies-review"&gt;Read our review&lt;/a&gt;.</t>
@@ -1291,7 +1297,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1303,6 +1309,9 @@
     <font/>
     <font>
       <sz val="10.0"/>
+    </font>
+    <font>
+      <color rgb="FF2C2D30"/>
     </font>
     <font>
       <u/>
@@ -1341,7 +1350,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -1358,27 +1367,30 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1434,7 +1446,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1443,41 +1455,47 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B6"/>
+    <hyperlink r:id="rId1" ref="B7"/>
   </hyperlinks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -1500,1773 +1518,1773 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="E1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="G1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2">
         <v>2.0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2">
         <v>3.0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2">
         <v>4.0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2">
         <v>5.0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2">
         <v>6.0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C8" s="2">
         <v>7.0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2">
         <v>8.0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C10" s="2">
         <v>9.0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C11" s="2">
         <v>10.0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C12" s="2">
         <v>11.0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C13" s="2">
         <v>12.0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C14" s="2">
         <v>13.0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C15" s="2">
         <v>14.0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C16" s="2">
         <v>15.0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C17" s="2">
         <v>16.0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C18" s="2">
         <v>17.0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AA18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C19" s="2">
         <v>18.0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C20" s="2">
         <v>19.0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C21" s="2">
         <v>20.0</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C22" s="2">
         <v>21.0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C23" s="2">
         <v>22.0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C24" s="2">
         <v>23.0</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C25" s="2">
         <v>24.0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C26" s="2">
         <v>25.0</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C27" s="2">
         <v>26.0</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C28" s="2">
         <v>27.0</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C29" s="2">
         <v>28.0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C30" s="2">
         <v>29.0</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C31" s="2">
         <v>30.0</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C32" s="2">
         <v>31.0</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C33" s="2">
         <v>32.0</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C34" s="2">
         <v>33.0</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C35" s="2">
         <v>34.0</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C36" s="2">
         <v>35.0</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C37" s="2">
         <v>36.0</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C38" s="2">
         <v>37.0</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C39" s="2">
         <v>38.0</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C40" s="2">
         <v>39.0</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C41" s="2">
         <v>40.0</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C42" s="2">
         <v>41.0</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C43" s="2">
         <v>42.0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C44" s="2">
         <v>43.0</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C45" s="2">
         <v>44.0</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C46" s="2">
         <v>45.0</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C47" s="2">
         <v>46.0</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C48" s="2">
         <v>47.0</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C49" s="2">
         <v>48.0</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C50" s="2">
         <v>49.0</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C51" s="2">
         <v>50.0</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C52" s="2">
         <v>51.0</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C53" s="2">
         <v>52.0</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C54" s="2">
         <v>53.0</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C55" s="2">
         <v>54.0</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C56" s="2">
         <v>55.0</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C57" s="2">
         <v>56.0</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C58" s="2">
         <v>57.0</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59">
@@ -3289,1574 +3307,1574 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="B1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="O1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="9" t="s">
+      <c r="M1" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="O1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="9" t="s">
-        <v>19</v>
+      <c r="P1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="10">
+      <c r="A2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="11">
         <v>13.0</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="P2" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q2" s="9"/>
+      <c r="G2" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q2" s="10"/>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="10">
+      <c r="A3" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="11">
         <v>12.0</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q3" s="10"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="11">
+        <v>11.0</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E4" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="P4" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q4" s="10"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="B5" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="D5" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I5" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q5" s="10"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B6" s="11">
+        <v>9.0</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="B7" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q7" s="10"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="11">
+        <v>7.0</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="11">
+        <v>6.0</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9" t="s">
+      <c r="G9" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="B11" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="P3" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q3" s="9"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="10">
-        <v>11.0</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="D28" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="E52" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q4" s="9"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="B5" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q5" s="9"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="B6" s="10">
-        <v>9.0</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q6" s="9"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="B7" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q7" s="9"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="D53" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="E53" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q8" s="9"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q9" s="9"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B10" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q10" s="9"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="B11" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q11" s="9"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q12" s="9"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="P13" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q13" s="9"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="P14" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q14" s="9"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
     </row>
     <row r="54">
-      <c r="A54" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="9"/>
+      <c r="A54" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
     </row>
     <row r="55">
-      <c r="A55" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="9"/>
-      <c r="P55" s="9"/>
-      <c r="Q55" s="9"/>
+      <c r="A55" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
     </row>
     <row r="56">
-      <c r="A56" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
-      <c r="Q56" s="9"/>
+      <c r="A56" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
     </row>
     <row r="57">
-      <c r="A57" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="9"/>
-      <c r="O57" s="9"/>
-      <c r="P57" s="9"/>
-      <c r="Q57" s="9"/>
+      <c r="A57" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
     </row>
     <row r="58">
-      <c r="A58" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="9"/>
-      <c r="O58" s="9"/>
-      <c r="P58" s="9"/>
-      <c r="Q58" s="9"/>
+      <c r="A58" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4877,35 +4895,35 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>420</v>
+      <c r="B1" s="13" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="s">
-        <v>421</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>422</v>
+      <c r="A2" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="s">
-        <v>421</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>422</v>
+      <c r="A3" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="s">
-        <v>421</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>422</v>
+      <c r="A4" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>

--- a/google_drive_cache/1nH4LH15wO3nx31vO9CtqP3HkJItg98LdxMHsy321TQw.xlsx
+++ b/google_drive_cache/1nH4LH15wO3nx31vO9CtqP3HkJItg98LdxMHsy321TQw.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="427">
   <si>
     <t>name</t>
   </si>
@@ -87,6 +87,9 @@
     <t>availabilityFilter</t>
   </si>
   <si>
+    <t>won</t>
+  </si>
+  <si>
     <t>Carol</t>
   </si>
   <si>
@@ -112,6 +115,9 @@
   </si>
   <si>
     <t>InTheaters</t>
+  </si>
+  <si>
+    <t>&lt;svg xmlns="http://www.w3.org/2000/svg" viewBox="0 0 40 40" class="small_logo" data-svg-fallback-override="" &gt;&lt;path fill="#FFF3C2" d="M136,315.8c-0.8-3.7-7.5-7.8-18.3-10.8c1.5-1.9,2.2-4.1,2.2-6.7c-0.2-7.2-2.2-10.7-3.9-12.3c0.2-0.5,0.3-0.9,0.3-1.4c0-5.7-13.5-10.6-31.8-12.2c0.4-2,0.4-4.1,0.4-4.1s-4.1-19.2,1.2-30.2c5.3-11,3.3-27.3,2-29.8c-1.2-2.4-2.9-14.7,0-19.6c2.8-4.9,4.1-16.3,5.7-33.9c1.6-17.6-3.3-20.8-3.3-20.8v-14.3h3.3c10.2-0.8,11.4-21.6,12.7-31c1.2-9.4,8.2-18,0-29c-8.2-11-27.3-15.1-27.3-15.1l0.4-10.2c0,0,5.3-4.5,4.9-19.6C83.2,0,70.6,0,70.6,0h-4.5c0,0-12.6,0-13.1,15.1c-0.4,15.1,4.9,19.6,4.9,19.6l0.4,10.2c0,0-19.6,4.1-27.3,15.1c-8.2,11-1.2,19.6,0,29c1.2,9.4,2.8,30.2,12.6,31h3.3v14.3c0,0-4.9,3.3-3.3,20.8c1.6,17.6,2.8,29,5.7,33.9c2.8,4.9,1.2,17.6,0,19.6c-1.2,2.4-3.3,18.8,2,29.8c5.3,11,1.2,30.2,1.2,30.2s0,1.6,0.4,4.1c-18.8,1.2-32.2,6.1-32.2,11.8c0,0.3,0.1,0.7,0.2,1c-1.8,1.6-3.8,5-4.2,12.8c0,2.6,0.7,4.9,2.2,6.7c-11.9,3.4-19,7.4-19,12.3v23.1c0,0,13.4,15.6,72.3,14.5c58.9-0.7,64.1-19,64.1-19v-20.1H136z" class="st0"&gt;&lt;/path&gt;&lt;/svg&gt;</t>
   </si>
   <si>
     <t>Mustang</t>
@@ -1548,1743 +1554,1749 @@
       <c r="J1" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2">
         <v>2.0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2">
         <v>3.0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2">
         <v>4.0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2">
         <v>5.0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2">
         <v>6.0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2">
         <v>7.0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2">
         <v>8.0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2">
         <v>9.0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C11" s="2">
         <v>10.0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C12" s="2">
         <v>11.0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C13" s="2">
         <v>12.0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C14" s="2">
         <v>13.0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C15" s="2">
         <v>14.0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C16" s="2">
         <v>15.0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C17" s="2">
         <v>16.0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C18" s="2">
         <v>17.0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AA18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C19" s="2">
         <v>18.0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C20" s="2">
         <v>19.0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C21" s="2">
         <v>20.0</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C22" s="2">
         <v>21.0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C23" s="2">
         <v>22.0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C24" s="2">
         <v>23.0</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C25" s="2">
         <v>24.0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C26" s="2">
         <v>25.0</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C27" s="2">
         <v>26.0</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C28" s="2">
         <v>27.0</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C29" s="2">
         <v>28.0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C30" s="2">
         <v>29.0</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C31" s="2">
         <v>30.0</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C32" s="2">
         <v>31.0</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C33" s="2">
         <v>32.0</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C34" s="2">
         <v>33.0</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C35" s="2">
         <v>34.0</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C36" s="2">
         <v>35.0</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C37" s="2">
         <v>36.0</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C38" s="2">
         <v>37.0</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C39" s="2">
         <v>38.0</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C40" s="2">
         <v>39.0</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C41" s="2">
         <v>40.0</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C42" s="2">
         <v>41.0</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C43" s="2">
         <v>42.0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C44" s="2">
         <v>43.0</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C45" s="2">
         <v>44.0</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C46" s="2">
         <v>45.0</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C47" s="2">
         <v>46.0</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C48" s="2">
         <v>47.0</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C49" s="2">
         <v>48.0</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C50" s="2">
         <v>49.0</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C51" s="2">
         <v>50.0</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C52" s="2">
         <v>51.0</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C53" s="2">
         <v>52.0</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C54" s="2">
         <v>53.0</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C55" s="2">
         <v>54.0</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C56" s="2">
         <v>55.0</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C57" s="2">
         <v>56.0</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C58" s="2">
         <v>57.0</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59">
@@ -3317,37 +3329,37 @@
         <v>16</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="O1" s="9" t="s">
         <v>18</v>
@@ -3361,25 +3373,25 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B2" s="11">
         <v>13.0</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -3389,37 +3401,37 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q2" s="10"/>
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B3" s="11">
         <v>12.0</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -3428,28 +3440,28 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q3" s="10"/>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B4" s="11">
         <v>11.0</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -3461,87 +3473,87 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q4" s="10"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B5" s="11">
         <v>10.0</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q5" s="10"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B6" s="11">
         <v>9.0</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>398</v>
-      </c>
       <c r="H6" s="10" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -3549,82 +3561,82 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q6" s="10"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B7" s="11">
         <v>8.0</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q7" s="10"/>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B8" s="11">
         <v>7.0</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -3635,37 +3647,37 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="10"/>
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" s="11">
         <v>6.0</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -3674,22 +3686,22 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q9" s="10"/>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B10" s="11">
         <v>5.0</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -3703,22 +3715,22 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q10" s="10"/>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B11" s="11">
         <v>4.0</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -3732,25 +3744,25 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q11" s="10"/>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B12" s="11">
         <v>3.0</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -3763,22 +3775,22 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q12" s="10"/>
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B13" s="11">
         <v>2.0</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -3792,22 +3804,22 @@
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q13" s="10"/>
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B14" s="11">
         <v>1.0</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -3821,35 +3833,35 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q14" s="10"/>
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>404</v>
-      </c>
       <c r="H15" s="10" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -3863,11 +3875,11 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -3886,20 +3898,20 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -3915,11 +3927,11 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -3938,11 +3950,11 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -3961,11 +3973,11 @@
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -3984,11 +3996,11 @@
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -4007,11 +4019,11 @@
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -4030,11 +4042,11 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -4053,11 +4065,11 @@
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -4076,11 +4088,11 @@
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -4099,11 +4111,11 @@
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -4122,11 +4134,11 @@
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -4145,23 +4157,23 @@
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E28" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>408</v>
-      </c>
       <c r="G28" s="10" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
@@ -4176,11 +4188,11 @@
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -4199,11 +4211,11 @@
     </row>
     <row r="30">
       <c r="A30" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -4222,11 +4234,11 @@
     </row>
     <row r="31">
       <c r="A31" s="10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -4245,11 +4257,11 @@
     </row>
     <row r="32">
       <c r="A32" s="10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
@@ -4268,11 +4280,11 @@
     </row>
     <row r="33">
       <c r="A33" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
@@ -4291,11 +4303,11 @@
     </row>
     <row r="34">
       <c r="A34" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
@@ -4314,11 +4326,11 @@
     </row>
     <row r="35">
       <c r="A35" s="10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
@@ -4337,11 +4349,11 @@
     </row>
     <row r="36">
       <c r="A36" s="10" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
@@ -4360,11 +4372,11 @@
     </row>
     <row r="37">
       <c r="A37" s="10" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
@@ -4383,11 +4395,11 @@
     </row>
     <row r="38">
       <c r="A38" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -4406,11 +4418,11 @@
     </row>
     <row r="39">
       <c r="A39" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
@@ -4429,11 +4441,11 @@
     </row>
     <row r="40">
       <c r="A40" s="10" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -4452,11 +4464,11 @@
     </row>
     <row r="41">
       <c r="A41" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
@@ -4475,11 +4487,11 @@
     </row>
     <row r="42">
       <c r="A42" s="10" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -4498,11 +4510,11 @@
     </row>
     <row r="43">
       <c r="A43" s="10" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
@@ -4521,11 +4533,11 @@
     </row>
     <row r="44">
       <c r="A44" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
@@ -4544,14 +4556,14 @@
     </row>
     <row r="45">
       <c r="A45" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -4569,11 +4581,11 @@
     </row>
     <row r="46">
       <c r="A46" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -4592,11 +4604,11 @@
     </row>
     <row r="47">
       <c r="A47" s="10" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
@@ -4615,14 +4627,14 @@
     </row>
     <row r="48">
       <c r="A48" s="10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -4640,11 +4652,11 @@
     </row>
     <row r="49">
       <c r="A49" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="10" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -4663,11 +4675,11 @@
     </row>
     <row r="50">
       <c r="A50" s="10" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
@@ -4686,11 +4698,11 @@
     </row>
     <row r="51">
       <c r="A51" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="10" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
@@ -4709,17 +4721,17 @@
     </row>
     <row r="52">
       <c r="A52" s="10" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
@@ -4736,17 +4748,17 @@
     </row>
     <row r="53">
       <c r="A53" s="10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
@@ -4763,11 +4775,11 @@
     </row>
     <row r="54">
       <c r="A54" s="10" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="10" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
@@ -4786,11 +4798,11 @@
     </row>
     <row r="55">
       <c r="A55" s="10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="10" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
@@ -4809,11 +4821,11 @@
     </row>
     <row r="56">
       <c r="A56" s="10" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="10" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
@@ -4832,11 +4844,11 @@
     </row>
     <row r="57">
       <c r="A57" s="10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
@@ -4855,11 +4867,11 @@
     </row>
     <row r="58">
       <c r="A58" s="10" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="10" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
@@ -4899,31 +4911,31 @@
         <v>2</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="14" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>

--- a/google_drive_cache/1nH4LH15wO3nx31vO9CtqP3HkJItg98LdxMHsy321TQw.xlsx
+++ b/google_drive_cache/1nH4LH15wO3nx31vO9CtqP3HkJItg98LdxMHsy321TQw.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="438">
   <si>
     <t>name</t>
   </si>
@@ -87,7 +87,40 @@
     <t>availabilityFilter</t>
   </si>
   <si>
-    <t>won</t>
+    <t>wonOne</t>
+  </si>
+  <si>
+    <t>wonTwo</t>
+  </si>
+  <si>
+    <t>wonThree</t>
+  </si>
+  <si>
+    <t>wonFour</t>
+  </si>
+  <si>
+    <t>wonFive</t>
+  </si>
+  <si>
+    <t>wonSix</t>
+  </si>
+  <si>
+    <t>wonSeven</t>
+  </si>
+  <si>
+    <t>wonEight</t>
+  </si>
+  <si>
+    <t>wonNine</t>
+  </si>
+  <si>
+    <t>wonTen</t>
+  </si>
+  <si>
+    <t>wonEleven</t>
+  </si>
+  <si>
+    <t>wonTwelve</t>
   </si>
   <si>
     <t>Carol</t>
@@ -117,7 +150,7 @@
     <t>InTheaters</t>
   </si>
   <si>
-    <t>&lt;svg xmlns="http://www.w3.org/2000/svg" viewBox="0 0 40 40" class="small_logo" data-svg-fallback-override="" &gt;&lt;path fill="#FFF3C2" d="M136,315.8c-0.8-3.7-7.5-7.8-18.3-10.8c1.5-1.9,2.2-4.1,2.2-6.7c-0.2-7.2-2.2-10.7-3.9-12.3c0.2-0.5,0.3-0.9,0.3-1.4c0-5.7-13.5-10.6-31.8-12.2c0.4-2,0.4-4.1,0.4-4.1s-4.1-19.2,1.2-30.2c5.3-11,3.3-27.3,2-29.8c-1.2-2.4-2.9-14.7,0-19.6c2.8-4.9,4.1-16.3,5.7-33.9c1.6-17.6-3.3-20.8-3.3-20.8v-14.3h3.3c10.2-0.8,11.4-21.6,12.7-31c1.2-9.4,8.2-18,0-29c-8.2-11-27.3-15.1-27.3-15.1l0.4-10.2c0,0,5.3-4.5,4.9-19.6C83.2,0,70.6,0,70.6,0h-4.5c0,0-12.6,0-13.1,15.1c-0.4,15.1,4.9,19.6,4.9,19.6l0.4,10.2c0,0-19.6,4.1-27.3,15.1c-8.2,11-1.2,19.6,0,29c1.2,9.4,2.8,30.2,12.6,31h3.3v14.3c0,0-4.9,3.3-3.3,20.8c1.6,17.6,2.8,29,5.7,33.9c2.8,4.9,1.2,17.6,0,19.6c-1.2,2.4-3.3,18.8,2,29.8c5.3,11,1.2,30.2,1.2,30.2s0,1.6,0.4,4.1c-18.8,1.2-32.2,6.1-32.2,11.8c0,0.3,0.1,0.7,0.2,1c-1.8,1.6-3.8,5-4.2,12.8c0,2.6,0.7,4.9,2.2,6.7c-11.9,3.4-19,7.4-19,12.3v23.1c0,0,13.4,15.6,72.3,14.5c58.9-0.7,64.1-19,64.1-19v-20.1H136z" class="st0"&gt;&lt;/path&gt;&lt;/svg&gt;</t>
+    <t>y</t>
   </si>
   <si>
     <t>Mustang</t>
@@ -1557,1746 +1590,1818 @@
       <c r="K1" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2">
         <v>2.0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2">
         <v>3.0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="O4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2">
         <v>4.0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2">
         <v>5.0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2">
         <v>6.0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2">
         <v>7.0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>79</v>
+        <v>90</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C9" s="2">
         <v>8.0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2">
         <v>9.0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C11" s="2">
         <v>10.0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>88</v>
+      <c r="T11" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C12" s="2">
         <v>11.0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C13" s="2">
         <v>12.0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="J13" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C14" s="2">
         <v>13.0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C15" s="2">
         <v>14.0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C16" s="2">
         <v>15.0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C17" s="2">
         <v>16.0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C18" s="2">
         <v>17.0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="AA18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C19" s="2">
         <v>18.0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C20" s="2">
         <v>19.0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C21" s="2">
         <v>20.0</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C22" s="2">
         <v>21.0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C23" s="2">
         <v>22.0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C24" s="2">
         <v>23.0</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="C25" s="2">
         <v>24.0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="C26" s="2">
         <v>25.0</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C27" s="2">
         <v>26.0</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C28" s="2">
         <v>27.0</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C29" s="2">
         <v>28.0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="C30" s="2">
         <v>29.0</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="C31" s="2">
         <v>30.0</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="C32" s="2">
         <v>31.0</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="C33" s="2">
         <v>32.0</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="C34" s="2">
         <v>33.0</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="C35" s="2">
         <v>34.0</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C36" s="2">
         <v>35.0</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="C37" s="2">
         <v>36.0</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="C38" s="2">
         <v>37.0</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="C39" s="2">
         <v>38.0</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="C40" s="2">
         <v>39.0</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="C41" s="2">
         <v>40.0</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="C42" s="2">
         <v>41.0</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="C43" s="2">
         <v>42.0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="C44" s="2">
         <v>43.0</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="C45" s="2">
         <v>44.0</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="C46" s="2">
         <v>45.0</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="C47" s="2">
         <v>46.0</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="C48" s="2">
         <v>47.0</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="C49" s="2">
         <v>48.0</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="C50" s="2">
         <v>49.0</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="C51" s="2">
         <v>50.0</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="C52" s="2">
         <v>51.0</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="C53" s="2">
         <v>52.0</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="C54" s="2">
         <v>53.0</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="C55" s="2">
         <v>54.0</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="C56" s="2">
         <v>55.0</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="C57" s="2">
         <v>56.0</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="C58" s="2">
         <v>57.0</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59">
@@ -3329,37 +3434,37 @@
         <v>16</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="O1" s="9" t="s">
         <v>18</v>
@@ -3373,25 +3478,25 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B2" s="11">
         <v>13.0</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -3401,37 +3506,37 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="Q2" s="10"/>
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B3" s="11">
         <v>12.0</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -3440,28 +3545,28 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="Q3" s="10"/>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B4" s="11">
         <v>11.0</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -3473,87 +3578,87 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="Q4" s="10"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="B5" s="11">
         <v>10.0</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>397</v>
-      </c>
       <c r="F5" s="10" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="Q5" s="10"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="B6" s="11">
         <v>9.0</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -3561,82 +3666,82 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="Q6" s="10"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="B7" s="11">
         <v>8.0</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>397</v>
-      </c>
       <c r="F7" s="10" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="G7" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="N7" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="L7" s="10" t="s">
+      <c r="O7" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="M7" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>401</v>
-      </c>
       <c r="P7" s="10" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="Q7" s="10"/>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B8" s="11">
         <v>7.0</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -3647,37 +3752,37 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="Q8" s="10"/>
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B9" s="11">
         <v>6.0</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -3686,22 +3791,22 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="Q9" s="10"/>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="B10" s="11">
         <v>5.0</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -3715,22 +3820,22 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="10"/>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="B11" s="11">
         <v>4.0</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -3744,25 +3849,25 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="Q11" s="10"/>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B12" s="11">
         <v>3.0</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -3775,22 +3880,22 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="Q12" s="10"/>
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B13" s="11">
         <v>2.0</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -3804,22 +3909,22 @@
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="Q13" s="10"/>
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="B14" s="11">
         <v>1.0</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -3833,35 +3938,35 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="Q14" s="10"/>
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -3875,11 +3980,11 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -3898,20 +4003,20 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -3927,11 +4032,11 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -3950,11 +4055,11 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -3973,11 +4078,11 @@
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -3996,11 +4101,11 @@
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -4019,11 +4124,11 @@
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -4042,11 +4147,11 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -4065,11 +4170,11 @@
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -4088,11 +4193,11 @@
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -4111,11 +4216,11 @@
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -4134,11 +4239,11 @@
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -4157,23 +4262,23 @@
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
@@ -4188,11 +4293,11 @@
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -4211,11 +4316,11 @@
     </row>
     <row r="30">
       <c r="A30" s="10" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -4234,11 +4339,11 @@
     </row>
     <row r="31">
       <c r="A31" s="10" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -4257,11 +4362,11 @@
     </row>
     <row r="32">
       <c r="A32" s="10" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
@@ -4280,11 +4385,11 @@
     </row>
     <row r="33">
       <c r="A33" s="10" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
@@ -4303,11 +4408,11 @@
     </row>
     <row r="34">
       <c r="A34" s="10" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
@@ -4326,11 +4431,11 @@
     </row>
     <row r="35">
       <c r="A35" s="10" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
@@ -4349,11 +4454,11 @@
     </row>
     <row r="36">
       <c r="A36" s="10" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
@@ -4372,11 +4477,11 @@
     </row>
     <row r="37">
       <c r="A37" s="10" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
@@ -4395,11 +4500,11 @@
     </row>
     <row r="38">
       <c r="A38" s="10" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -4418,11 +4523,11 @@
     </row>
     <row r="39">
       <c r="A39" s="10" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
@@ -4441,11 +4546,11 @@
     </row>
     <row r="40">
       <c r="A40" s="10" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -4464,11 +4569,11 @@
     </row>
     <row r="41">
       <c r="A41" s="10" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
@@ -4487,11 +4592,11 @@
     </row>
     <row r="42">
       <c r="A42" s="10" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -4510,11 +4615,11 @@
     </row>
     <row r="43">
       <c r="A43" s="10" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
@@ -4533,11 +4638,11 @@
     </row>
     <row r="44">
       <c r="A44" s="10" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
@@ -4556,14 +4661,14 @@
     </row>
     <row r="45">
       <c r="A45" s="10" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -4581,11 +4686,11 @@
     </row>
     <row r="46">
       <c r="A46" s="10" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -4604,11 +4709,11 @@
     </row>
     <row r="47">
       <c r="A47" s="10" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="10" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
@@ -4627,14 +4732,14 @@
     </row>
     <row r="48">
       <c r="A48" s="10" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="10" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -4652,11 +4757,11 @@
     </row>
     <row r="49">
       <c r="A49" s="10" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="10" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -4675,11 +4780,11 @@
     </row>
     <row r="50">
       <c r="A50" s="10" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
@@ -4698,11 +4803,11 @@
     </row>
     <row r="51">
       <c r="A51" s="10" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="10" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
@@ -4721,17 +4826,17 @@
     </row>
     <row r="52">
       <c r="A52" s="10" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
@@ -4748,17 +4853,17 @@
     </row>
     <row r="53">
       <c r="A53" s="10" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="10" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
@@ -4775,11 +4880,11 @@
     </row>
     <row r="54">
       <c r="A54" s="10" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="10" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
@@ -4798,11 +4903,11 @@
     </row>
     <row r="55">
       <c r="A55" s="10" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="10" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
@@ -4821,11 +4926,11 @@
     </row>
     <row r="56">
       <c r="A56" s="10" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="10" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
@@ -4844,11 +4949,11 @@
     </row>
     <row r="57">
       <c r="A57" s="10" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
@@ -4867,11 +4972,11 @@
     </row>
     <row r="58">
       <c r="A58" s="10" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="10" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
@@ -4911,31 +5016,31 @@
         <v>2</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="14" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>

--- a/google_drive_cache/1nH4LH15wO3nx31vO9CtqP3HkJItg98LdxMHsy321TQw.xlsx
+++ b/google_drive_cache/1nH4LH15wO3nx31vO9CtqP3HkJItg98LdxMHsy321TQw.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="426">
   <si>
     <t>name</t>
   </si>
@@ -87,40 +87,7 @@
     <t>availabilityFilter</t>
   </si>
   <si>
-    <t>wonOne</t>
-  </si>
-  <si>
-    <t>wonTwo</t>
-  </si>
-  <si>
-    <t>wonThree</t>
-  </si>
-  <si>
-    <t>wonFour</t>
-  </si>
-  <si>
-    <t>wonFive</t>
-  </si>
-  <si>
-    <t>wonSix</t>
-  </si>
-  <si>
-    <t>wonSeven</t>
-  </si>
-  <si>
-    <t>wonEight</t>
-  </si>
-  <si>
-    <t>wonNine</t>
-  </si>
-  <si>
-    <t>wonTen</t>
-  </si>
-  <si>
-    <t>wonEleven</t>
-  </si>
-  <si>
-    <t>wonTwelve</t>
+    <t>won</t>
   </si>
   <si>
     <t>Carol</t>
@@ -148,9 +115,6 @@
   </si>
   <si>
     <t>InTheaters</t>
-  </si>
-  <si>
-    <t>y</t>
   </si>
   <si>
     <t>Mustang</t>
@@ -1590,1818 +1554,1785 @@
       <c r="K1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2">
         <v>1.0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="K2" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2">
         <v>2.0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
+      </c>
+      <c r="K3" s="2">
+        <v>6.0</v>
       </c>
       <c r="N3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2">
         <v>3.0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="K4" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="M4" s="2"/>
       <c r="O4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2">
         <v>4.0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="K5" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="N5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2">
         <v>5.0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="K6" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="O6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2">
         <v>6.0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="P7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2">
         <v>7.0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="Q8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2">
         <v>8.0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="R9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C10" s="2">
         <v>9.0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="S10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C11" s="2">
         <v>10.0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="T11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C12" s="2">
         <v>11.0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="U12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C13" s="2">
         <v>12.0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="V13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C14" s="2">
         <v>13.0</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C15" s="2">
         <v>14.0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C16" s="2">
         <v>15.0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C17" s="2">
         <v>16.0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C18" s="2">
         <v>17.0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="AA18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C19" s="2">
         <v>18.0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C20" s="2">
         <v>19.0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="H20" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C21" s="2">
         <v>20.0</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C22" s="2">
         <v>21.0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C23" s="2">
         <v>22.0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C24" s="2">
         <v>23.0</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C25" s="2">
         <v>24.0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C26" s="2">
         <v>25.0</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C27" s="2">
         <v>26.0</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C28" s="2">
         <v>27.0</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C29" s="2">
         <v>28.0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C30" s="2">
         <v>29.0</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C31" s="2">
         <v>30.0</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C32" s="2">
         <v>31.0</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C33" s="2">
         <v>32.0</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="C34" s="2">
         <v>33.0</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C35" s="2">
         <v>34.0</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C36" s="2">
         <v>35.0</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C37" s="2">
         <v>36.0</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C38" s="2">
         <v>37.0</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="C39" s="2">
         <v>38.0</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C40" s="2">
         <v>39.0</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C41" s="2">
         <v>40.0</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C42" s="2">
         <v>41.0</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C43" s="2">
         <v>42.0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C44" s="2">
         <v>43.0</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C45" s="2">
         <v>44.0</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C46" s="2">
         <v>45.0</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="C47" s="2">
         <v>46.0</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C48" s="2">
         <v>47.0</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C49" s="2">
         <v>48.0</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C50" s="2">
         <v>49.0</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C51" s="2">
         <v>50.0</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C52" s="2">
         <v>51.0</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="C53" s="2">
         <v>52.0</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C54" s="2">
         <v>53.0</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C55" s="2">
         <v>54.0</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C56" s="2">
         <v>55.0</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="C57" s="2">
         <v>56.0</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="C58" s="2">
         <v>57.0</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59">
@@ -3434,37 +3365,37 @@
         <v>16</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="O1" s="9" t="s">
         <v>18</v>
@@ -3478,25 +3409,25 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B2" s="11">
         <v>13.0</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -3506,37 +3437,37 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="Q2" s="10"/>
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B3" s="11">
         <v>12.0</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -3545,28 +3476,28 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="Q3" s="10"/>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B4" s="11">
         <v>11.0</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -3578,87 +3509,87 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="Q4" s="10"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="B5" s="11">
         <v>10.0</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>419</v>
-      </c>
       <c r="E5" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="H5" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>422</v>
-      </c>
       <c r="K5" s="10" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="Q5" s="10"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="B6" s="11">
         <v>9.0</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="G6" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>411</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>423</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
@@ -3666,82 +3597,82 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="Q6" s="10"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="B7" s="11">
         <v>8.0</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>419</v>
-      </c>
       <c r="E7" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="H7" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>422</v>
-      </c>
       <c r="K7" s="10" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="Q7" s="10"/>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B8" s="11">
         <v>7.0</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -3752,37 +3683,37 @@
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="Q8" s="10"/>
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B9" s="11">
         <v>6.0</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -3791,22 +3722,22 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="Q9" s="10"/>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B10" s="11">
         <v>5.0</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -3820,22 +3751,22 @@
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="Q10" s="10"/>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="B11" s="11">
         <v>4.0</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -3849,25 +3780,25 @@
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="Q11" s="10"/>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B12" s="11">
         <v>3.0</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -3880,22 +3811,22 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="Q12" s="10"/>
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B13" s="11">
         <v>2.0</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
@@ -3909,22 +3840,22 @@
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="Q13" s="10"/>
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B14" s="11">
         <v>1.0</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -3938,35 +3869,35 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="Q14" s="10"/>
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -3980,11 +3911,11 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -4003,20 +3934,20 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="D17" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>413</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>425</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -4032,11 +3963,11 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -4055,11 +3986,11 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -4078,11 +4009,11 @@
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -4101,11 +4032,11 @@
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -4124,11 +4055,11 @@
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -4147,11 +4078,11 @@
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -4170,11 +4101,11 @@
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -4193,11 +4124,11 @@
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -4216,11 +4147,11 @@
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -4239,11 +4170,11 @@
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -4262,23 +4193,23 @@
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
@@ -4293,11 +4224,11 @@
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -4316,11 +4247,11 @@
     </row>
     <row r="30">
       <c r="A30" s="10" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
@@ -4339,11 +4270,11 @@
     </row>
     <row r="31">
       <c r="A31" s="10" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -4362,11 +4293,11 @@
     </row>
     <row r="32">
       <c r="A32" s="10" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
@@ -4385,11 +4316,11 @@
     </row>
     <row r="33">
       <c r="A33" s="10" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
@@ -4408,11 +4339,11 @@
     </row>
     <row r="34">
       <c r="A34" s="10" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
@@ -4431,11 +4362,11 @@
     </row>
     <row r="35">
       <c r="A35" s="10" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
@@ -4454,11 +4385,11 @@
     </row>
     <row r="36">
       <c r="A36" s="10" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
@@ -4477,11 +4408,11 @@
     </row>
     <row r="37">
       <c r="A37" s="10" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
@@ -4500,11 +4431,11 @@
     </row>
     <row r="38">
       <c r="A38" s="10" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
@@ -4523,11 +4454,11 @@
     </row>
     <row r="39">
       <c r="A39" s="10" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
@@ -4546,11 +4477,11 @@
     </row>
     <row r="40">
       <c r="A40" s="10" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -4569,11 +4500,11 @@
     </row>
     <row r="41">
       <c r="A41" s="10" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
@@ -4592,11 +4523,11 @@
     </row>
     <row r="42">
       <c r="A42" s="10" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -4615,11 +4546,11 @@
     </row>
     <row r="43">
       <c r="A43" s="10" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
@@ -4638,11 +4569,11 @@
     </row>
     <row r="44">
       <c r="A44" s="10" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
@@ -4661,14 +4592,14 @@
     </row>
     <row r="45">
       <c r="A45" s="10" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="D45" s="10" t="s">
         <v>421</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>433</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -4686,11 +4617,11 @@
     </row>
     <row r="46">
       <c r="A46" s="10" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -4709,11 +4640,11 @@
     </row>
     <row r="47">
       <c r="A47" s="10" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="10" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
@@ -4732,14 +4663,14 @@
     </row>
     <row r="48">
       <c r="A48" s="10" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="10" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -4757,11 +4688,11 @@
     </row>
     <row r="49">
       <c r="A49" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="10" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -4780,11 +4711,11 @@
     </row>
     <row r="50">
       <c r="A50" s="10" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
@@ -4803,11 +4734,11 @@
     </row>
     <row r="51">
       <c r="A51" s="10" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="10" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
@@ -4826,17 +4757,17 @@
     </row>
     <row r="52">
       <c r="A52" s="10" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
@@ -4853,17 +4784,17 @@
     </row>
     <row r="53">
       <c r="A53" s="10" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="10" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
@@ -4880,11 +4811,11 @@
     </row>
     <row r="54">
       <c r="A54" s="10" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="10" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
@@ -4903,11 +4834,11 @@
     </row>
     <row r="55">
       <c r="A55" s="10" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="10" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
@@ -4926,11 +4857,11 @@
     </row>
     <row r="56">
       <c r="A56" s="10" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="10" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
@@ -4949,11 +4880,11 @@
     </row>
     <row r="57">
       <c r="A57" s="10" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
@@ -4972,11 +4903,11 @@
     </row>
     <row r="58">
       <c r="A58" s="10" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="10" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
@@ -5016,31 +4947,31 @@
         <v>2</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="14" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
